--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE904A03-66C6-47A9-A03C-362F8ED2603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B667FA21-A737-4F3F-8091-E3DE6E92FE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
   <si>
     <t>NumComments</t>
   </si>
@@ -55,6 +55,12 @@
   </si>
   <si>
     <t>Both</t>
+  </si>
+  <si>
+    <t>vaxxhappened</t>
+  </si>
+  <si>
+    <t>science</t>
   </si>
 </sst>
 </file>
@@ -398,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:O5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +510,52 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>5504</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>5329</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>175</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11050</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>9451</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+      <c r="F6">
+        <v>1599</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>9</v>
@@ -585,6 +637,52 @@
       </c>
       <c r="G11">
         <v>3893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4077</v>
+      </c>
+      <c r="C12">
+        <v>4583</v>
+      </c>
+      <c r="D12">
+        <v>3965</v>
+      </c>
+      <c r="E12">
+        <v>4465</v>
+      </c>
+      <c r="F12">
+        <v>115</v>
+      </c>
+      <c r="G12">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>8626</v>
+      </c>
+      <c r="C13">
+        <v>9613</v>
+      </c>
+      <c r="D13">
+        <v>7660</v>
+      </c>
+      <c r="E13">
+        <v>8455</v>
+      </c>
+      <c r="F13">
+        <v>979</v>
+      </c>
+      <c r="G13">
+        <v>1158</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B667FA21-A737-4F3F-8091-E3DE6E92FE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E676DC-2D58-443B-B22E-5D60FA6E5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>NumComments</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>science</t>
+  </si>
+  <si>
+    <t>DebateVaccines</t>
   </si>
 </sst>
 </file>
@@ -404,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
@@ -556,140 +559,186 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>3345</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>2101</v>
+      </c>
+      <c r="E7">
+        <v>7</v>
+      </c>
+      <c r="F7">
+        <v>1244</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>15691</v>
-      </c>
-      <c r="C10">
-        <v>19286</v>
-      </c>
-      <c r="D10">
-        <v>15343</v>
-      </c>
-      <c r="E10">
-        <v>18804</v>
-      </c>
-      <c r="F10">
-        <v>397</v>
-      </c>
-      <c r="G10">
-        <v>482</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>8627</v>
+        <v>15691</v>
       </c>
       <c r="C11">
-        <v>11447</v>
+        <v>19286</v>
       </c>
       <c r="D11">
-        <v>5907</v>
+        <v>15343</v>
       </c>
       <c r="E11">
-        <v>7554</v>
+        <v>18804</v>
       </c>
       <c r="F11">
-        <v>2864</v>
+        <v>397</v>
       </c>
       <c r="G11">
-        <v>3893</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>4077</v>
+        <v>8627</v>
       </c>
       <c r="C12">
-        <v>4583</v>
+        <v>11447</v>
       </c>
       <c r="D12">
-        <v>3965</v>
+        <v>5907</v>
       </c>
       <c r="E12">
-        <v>4465</v>
+        <v>7554</v>
       </c>
       <c r="F12">
-        <v>115</v>
+        <v>2864</v>
       </c>
       <c r="G12">
-        <v>118</v>
+        <v>3893</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>4077</v>
+      </c>
+      <c r="C13">
+        <v>4583</v>
+      </c>
+      <c r="D13">
+        <v>3965</v>
+      </c>
+      <c r="E13">
+        <v>4465</v>
+      </c>
+      <c r="F13">
+        <v>115</v>
+      </c>
+      <c r="G13">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>8626</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>9613</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>7660</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>8455</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>979</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>1158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>1178</v>
+      </c>
+      <c r="C15">
+        <v>1748</v>
+      </c>
+      <c r="D15">
+        <v>770</v>
+      </c>
+      <c r="E15">
+        <v>1059</v>
+      </c>
+      <c r="F15">
+        <v>481</v>
+      </c>
+      <c r="G15">
+        <v>690</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:G1"/>

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E676DC-2D58-443B-B22E-5D60FA6E5CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D7C804-9F13-40D8-915F-D4A6FCFCDEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>NumComments</t>
   </si>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +96,13 @@
       <charset val="161"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -117,13 +124,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,23 +431,23 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -460,9 +471,7 @@
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -472,22 +481,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21512</v>
+        <v>104927</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>20923</v>
+        <v>2203</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F3">
-        <v>589</v>
+        <v>102125</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -495,22 +504,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15121</v>
+        <v>9850</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>9850</v>
+        <v>5271</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>5271</v>
+        <v>15121</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -518,22 +527,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5504</v>
+        <v>5329</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>5329</v>
+        <v>175</v>
       </c>
       <c r="E5">
         <v>10</v>
       </c>
       <c r="F5">
-        <v>175</v>
+        <v>5504</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -541,22 +550,22 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <v>9451</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>1599</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
         <v>11050</v>
       </c>
-      <c r="C6">
+      <c r="G6">
         <v>18</v>
-      </c>
-      <c r="D6">
-        <v>9451</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>1599</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -564,37 +573,37 @@
         <v>12</v>
       </c>
       <c r="B7">
+        <v>2101</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1244</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
         <v>3345</v>
       </c>
-      <c r="C7">
+      <c r="G7">
         <v>17</v>
       </c>
-      <c r="D7">
-        <v>2101</v>
-      </c>
-      <c r="E7">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>1244</v>
-      </c>
-      <c r="G7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -624,22 +633,22 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>15691</v>
+        <v>62232</v>
       </c>
       <c r="C11">
-        <v>19286</v>
-      </c>
-      <c r="D11">
-        <v>15343</v>
-      </c>
-      <c r="E11">
-        <v>18804</v>
-      </c>
-      <c r="F11">
-        <v>397</v>
-      </c>
-      <c r="G11">
-        <v>482</v>
+        <v>91145</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1363</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1742</v>
+      </c>
+      <c r="F11" s="5">
+        <v>62232</v>
+      </c>
+      <c r="G11" s="5">
+        <v>91145</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -647,22 +656,22 @@
         <v>2</v>
       </c>
       <c r="B12">
+        <v>5907</v>
+      </c>
+      <c r="C12">
+        <v>7554</v>
+      </c>
+      <c r="D12">
+        <v>2864</v>
+      </c>
+      <c r="E12">
+        <v>3893</v>
+      </c>
+      <c r="F12">
         <v>8627</v>
       </c>
-      <c r="C12">
+      <c r="G12">
         <v>11447</v>
-      </c>
-      <c r="D12">
-        <v>5907</v>
-      </c>
-      <c r="E12">
-        <v>7554</v>
-      </c>
-      <c r="F12">
-        <v>2864</v>
-      </c>
-      <c r="G12">
-        <v>3893</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -670,22 +679,22 @@
         <v>10</v>
       </c>
       <c r="B13">
+        <v>3965</v>
+      </c>
+      <c r="C13">
+        <v>4465</v>
+      </c>
+      <c r="D13" s="5">
+        <v>115</v>
+      </c>
+      <c r="E13" s="5">
+        <v>118</v>
+      </c>
+      <c r="F13" s="5">
         <v>4077</v>
       </c>
-      <c r="C13">
+      <c r="G13" s="5">
         <v>4583</v>
-      </c>
-      <c r="D13">
-        <v>3965</v>
-      </c>
-      <c r="E13">
-        <v>4465</v>
-      </c>
-      <c r="F13">
-        <v>115</v>
-      </c>
-      <c r="G13">
-        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -693,22 +702,22 @@
         <v>11</v>
       </c>
       <c r="B14">
+        <v>7660</v>
+      </c>
+      <c r="C14">
+        <v>8455</v>
+      </c>
+      <c r="D14" s="5">
+        <v>979</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1158</v>
+      </c>
+      <c r="F14">
         <v>8626</v>
       </c>
-      <c r="C14">
+      <c r="G14">
         <v>9613</v>
-      </c>
-      <c r="D14">
-        <v>7660</v>
-      </c>
-      <c r="E14">
-        <v>8455</v>
-      </c>
-      <c r="F14">
-        <v>979</v>
-      </c>
-      <c r="G14">
-        <v>1158</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -716,32 +725,187 @@
         <v>12</v>
       </c>
       <c r="B15">
+        <v>770</v>
+      </c>
+      <c r="C15">
+        <v>1059</v>
+      </c>
+      <c r="D15">
+        <v>481</v>
+      </c>
+      <c r="E15">
+        <v>690</v>
+      </c>
+      <c r="F15">
         <v>1178</v>
       </c>
-      <c r="C15">
+      <c r="G15">
         <v>1748</v>
       </c>
-      <c r="D15">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>62232</v>
+      </c>
+      <c r="C22">
+        <v>91145</v>
+      </c>
+      <c r="D22" s="5">
+        <v>1323</v>
+      </c>
+      <c r="E22" s="5">
+        <v>1704</v>
+      </c>
+      <c r="F22" s="5">
+        <v>60179</v>
+      </c>
+      <c r="G22" s="5">
+        <v>88231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>5907</v>
+      </c>
+      <c r="C23">
+        <v>7554</v>
+      </c>
+      <c r="D23">
+        <v>2864</v>
+      </c>
+      <c r="E23">
+        <v>3893</v>
+      </c>
+      <c r="F23">
+        <v>8627</v>
+      </c>
+      <c r="G23">
+        <v>11447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>3965</v>
+      </c>
+      <c r="C24">
+        <v>4465</v>
+      </c>
+      <c r="D24" s="5">
+        <v>59</v>
+      </c>
+      <c r="E24" s="5">
+        <v>60</v>
+      </c>
+      <c r="F24" s="5">
+        <v>4021</v>
+      </c>
+      <c r="G24" s="5">
+        <v>4525</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>7660</v>
+      </c>
+      <c r="C25">
+        <v>8455</v>
+      </c>
+      <c r="D25" s="5">
+        <v>575</v>
+      </c>
+      <c r="E25" s="5">
+        <v>640</v>
+      </c>
+      <c r="F25">
+        <v>8626</v>
+      </c>
+      <c r="G25">
+        <v>9613</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26">
         <v>770</v>
       </c>
-      <c r="E15">
+      <c r="C26">
         <v>1059</v>
       </c>
-      <c r="F15">
+      <c r="D26">
         <v>481</v>
       </c>
-      <c r="G15">
+      <c r="E26">
         <v>690</v>
       </c>
+      <c r="F26">
+        <v>1178</v>
+      </c>
+      <c r="G26">
+        <v>1748</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D7C804-9F13-40D8-915F-D4A6FCFCDEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C72F42-059F-4C79-B341-DB508D45E3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,6 +103,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -124,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -135,9 +150,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +439,7 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,18 +454,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -481,91 +499,91 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>104927</v>
+        <v>143116</v>
       </c>
       <c r="C3">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="D3">
-        <v>2203</v>
+        <v>3395</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F3">
-        <v>102125</v>
+        <v>146511</v>
       </c>
       <c r="G3">
-        <v>148</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>9850</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="6">
+        <v>118139</v>
+      </c>
+      <c r="C4" s="6">
+        <v>216</v>
+      </c>
+      <c r="D4" s="6">
+        <v>14939</v>
+      </c>
+      <c r="E4" s="6">
+        <v>58</v>
+      </c>
+      <c r="F4" s="6">
+        <v>132278</v>
+      </c>
+      <c r="G4" s="6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4">
-        <v>5271</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>15121</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>5329</v>
       </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
+      <c r="C5" s="7">
+        <v>139</v>
+      </c>
+      <c r="D5" s="7">
         <v>175</v>
       </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="7">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7">
         <v>5504</v>
       </c>
-      <c r="G5">
-        <v>20</v>
+      <c r="G5" s="7">
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>9451</v>
-      </c>
-      <c r="C6">
-        <v>8</v>
-      </c>
-      <c r="D6">
-        <v>1599</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>11050</v>
-      </c>
-      <c r="G6">
-        <v>18</v>
+      <c r="B6" s="6">
+        <v>68068</v>
+      </c>
+      <c r="C6" s="6">
+        <v>139</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1897</v>
+      </c>
+      <c r="E6" s="6">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6">
+        <v>69965</v>
+      </c>
+      <c r="G6" s="6">
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -573,37 +591,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2101</v>
-      </c>
-      <c r="C7">
+        <v>41082</v>
+      </c>
+      <c r="C7" s="6">
+        <v>221</v>
+      </c>
+      <c r="D7" s="6">
+        <v>24904</v>
+      </c>
+      <c r="E7" s="6">
+        <v>576</v>
+      </c>
+      <c r="F7" s="6">
+        <v>65656</v>
+      </c>
+      <c r="G7" s="6">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>1244</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>3345</v>
-      </c>
-      <c r="G7">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -633,22 +651,22 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>62232</v>
+        <v>58497</v>
       </c>
       <c r="C11">
-        <v>91145</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1363</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1742</v>
-      </c>
-      <c r="F11" s="5">
-        <v>62232</v>
-      </c>
-      <c r="G11" s="5">
-        <v>91145</v>
+        <v>88738</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1361</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1711</v>
+      </c>
+      <c r="F11" s="6">
+        <v>59133</v>
+      </c>
+      <c r="G11" s="6">
+        <v>89884</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -744,18 +762,18 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="8"/>
+      <c r="D20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="8"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C72F42-059F-4C79-B341-DB508D45E3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC6D72-5385-43D2-91CC-FF738E650CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>NumComments</t>
   </si>
@@ -57,20 +57,23 @@
     <t>Both</t>
   </si>
   <si>
-    <t>vaxxhappened</t>
-  </si>
-  <si>
     <t>science</t>
   </si>
   <si>
     <t>DebateVaccines</t>
+  </si>
+  <si>
+    <t>MultiDiGraph</t>
+  </si>
+  <si>
+    <t>Graph</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,22 +101,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,7 +115,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -135,27 +123,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,15 +526,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
@@ -454,18 +544,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -521,45 +611,45 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>118139</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>216</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>14939</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>58</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>132278</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>273</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="7">
-        <v>5329</v>
-      </c>
-      <c r="C5" s="7">
+      <c r="B5" s="3">
+        <v>68068</v>
+      </c>
+      <c r="C5" s="3">
         <v>139</v>
       </c>
-      <c r="D5" s="7">
-        <v>175</v>
-      </c>
-      <c r="E5" s="7">
+      <c r="D5" s="3">
+        <v>1897</v>
+      </c>
+      <c r="E5" s="3">
         <v>15</v>
       </c>
-      <c r="F5" s="7">
-        <v>5504</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="F5" s="3">
+        <v>69965</v>
+      </c>
+      <c r="G5" s="3">
         <v>154</v>
       </c>
     </row>
@@ -567,363 +657,311 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6">
-        <v>68068</v>
-      </c>
-      <c r="C6" s="6">
-        <v>139</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1897</v>
-      </c>
-      <c r="E6" s="6">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6">
-        <v>69965</v>
-      </c>
-      <c r="G6" s="6">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B6">
+        <v>41082</v>
+      </c>
+      <c r="C6" s="3">
+        <v>221</v>
+      </c>
+      <c r="D6" s="3">
+        <v>24904</v>
+      </c>
+      <c r="E6" s="3">
+        <v>576</v>
+      </c>
+      <c r="F6" s="3">
+        <v>65656</v>
+      </c>
+      <c r="G6" s="3">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>41082</v>
-      </c>
-      <c r="C7" s="6">
-        <v>221</v>
-      </c>
-      <c r="D7" s="6">
-        <v>24904</v>
-      </c>
-      <c r="E7" s="6">
-        <v>576</v>
-      </c>
-      <c r="F7" s="6">
-        <v>65656</v>
-      </c>
-      <c r="G7" s="6">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>58497</v>
-      </c>
-      <c r="C11">
-        <v>88738</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1361</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1711</v>
-      </c>
-      <c r="F11" s="6">
-        <v>59133</v>
-      </c>
-      <c r="G11" s="6">
-        <v>89884</v>
+      <c r="B11" s="8">
+        <v>77143</v>
+      </c>
+      <c r="C11" s="8">
+        <v>248793</v>
+      </c>
+      <c r="D11" s="9">
+        <v>1924</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4955</v>
+      </c>
+      <c r="F11" s="9">
+        <v>78437</v>
+      </c>
+      <c r="G11" s="10">
+        <v>253870</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
-        <v>5907</v>
-      </c>
-      <c r="C12">
-        <v>7554</v>
-      </c>
-      <c r="D12">
-        <v>2864</v>
-      </c>
-      <c r="E12">
-        <v>3893</v>
-      </c>
-      <c r="F12">
-        <v>8627</v>
-      </c>
-      <c r="G12">
-        <v>11447</v>
+      <c r="B12" s="8">
+        <v>47060</v>
+      </c>
+      <c r="C12" s="8">
+        <v>185424</v>
+      </c>
+      <c r="D12" s="8">
+        <v>7893</v>
+      </c>
+      <c r="E12" s="8">
+        <v>21537</v>
+      </c>
+      <c r="F12" s="8">
+        <v>52061</v>
+      </c>
+      <c r="G12" s="11">
+        <v>205527</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13">
-        <v>3965</v>
-      </c>
-      <c r="C13">
-        <v>4465</v>
-      </c>
-      <c r="D13" s="5">
-        <v>115</v>
-      </c>
-      <c r="E13" s="5">
-        <v>118</v>
-      </c>
-      <c r="F13" s="5">
-        <v>4077</v>
-      </c>
-      <c r="G13" s="5">
-        <v>4583</v>
+      <c r="B13" s="8">
+        <v>49265</v>
+      </c>
+      <c r="C13" s="8">
+        <v>119017</v>
+      </c>
+      <c r="D13" s="9">
+        <v>685</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1553</v>
+      </c>
+      <c r="F13" s="8">
+        <v>50248</v>
+      </c>
+      <c r="G13" s="11">
+        <v>121664</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14">
-        <v>7660</v>
-      </c>
-      <c r="C14">
-        <v>8455</v>
-      </c>
-      <c r="D14" s="5">
-        <v>979</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1158</v>
-      </c>
-      <c r="F14">
-        <v>8626</v>
-      </c>
-      <c r="G14">
-        <v>9613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>770</v>
-      </c>
-      <c r="C15">
-        <v>1059</v>
-      </c>
-      <c r="D15">
-        <v>481</v>
-      </c>
-      <c r="E15">
-        <v>690</v>
-      </c>
-      <c r="F15">
-        <v>1178</v>
-      </c>
-      <c r="G15">
-        <v>1748</v>
+      <c r="B14" s="13">
+        <v>8090</v>
+      </c>
+      <c r="C14" s="13">
+        <v>42297</v>
+      </c>
+      <c r="D14" s="13">
+        <v>5657</v>
+      </c>
+      <c r="E14" s="13">
+        <v>23109</v>
+      </c>
+      <c r="F14" s="13">
+        <v>12271</v>
+      </c>
+      <c r="G14" s="14">
+        <v>64094</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="8">
+        <v>77143</v>
+      </c>
+      <c r="C18" s="18">
+        <v>124458</v>
+      </c>
+      <c r="D18" s="9">
+        <v>1924</v>
+      </c>
+      <c r="E18" s="18">
+        <v>2490</v>
+      </c>
+      <c r="F18" s="9">
+        <v>78437</v>
+      </c>
+      <c r="G18" s="20">
+        <v>127008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8">
+        <v>47060</v>
+      </c>
+      <c r="C19" s="18">
+        <v>92842</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7893</v>
+      </c>
+      <c r="E19" s="18">
+        <v>10786</v>
+      </c>
+      <c r="F19" s="8">
+        <v>52061</v>
+      </c>
+      <c r="G19" s="20">
+        <v>102910</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="8"/>
+      <c r="A20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="8">
+        <v>49265</v>
+      </c>
+      <c r="C20" s="18">
+        <v>59531</v>
+      </c>
+      <c r="D20" s="9">
+        <v>685</v>
+      </c>
+      <c r="E20" s="18">
+        <v>778</v>
+      </c>
+      <c r="F20" s="8">
+        <v>50248</v>
+      </c>
+      <c r="G20" s="20">
+        <v>60858</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>62232</v>
-      </c>
-      <c r="C22">
-        <v>91145</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1323</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1704</v>
-      </c>
-      <c r="F22" s="5">
-        <v>60179</v>
-      </c>
-      <c r="G22" s="5">
-        <v>88231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23">
-        <v>5907</v>
-      </c>
-      <c r="C23">
-        <v>7554</v>
-      </c>
-      <c r="D23">
-        <v>2864</v>
-      </c>
-      <c r="E23">
-        <v>3893</v>
-      </c>
-      <c r="F23">
-        <v>8627</v>
-      </c>
-      <c r="G23">
-        <v>11447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>3965</v>
-      </c>
-      <c r="C24">
-        <v>4465</v>
-      </c>
-      <c r="D24" s="5">
-        <v>59</v>
-      </c>
-      <c r="E24" s="5">
-        <v>60</v>
-      </c>
-      <c r="F24" s="5">
-        <v>4021</v>
-      </c>
-      <c r="G24" s="5">
-        <v>4525</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B25">
-        <v>7660</v>
-      </c>
-      <c r="C25">
-        <v>8455</v>
-      </c>
-      <c r="D25" s="5">
-        <v>575</v>
-      </c>
-      <c r="E25" s="5">
-        <v>640</v>
-      </c>
-      <c r="F25">
-        <v>8626</v>
-      </c>
-      <c r="G25">
-        <v>9613</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>770</v>
-      </c>
-      <c r="C26">
-        <v>1059</v>
-      </c>
-      <c r="D26">
-        <v>481</v>
-      </c>
-      <c r="E26">
-        <v>690</v>
-      </c>
-      <c r="F26">
-        <v>1178</v>
-      </c>
-      <c r="G26">
-        <v>1748</v>
+      <c r="B21" s="13">
+        <v>8090</v>
+      </c>
+      <c r="C21" s="19">
+        <v>21206</v>
+      </c>
+      <c r="D21" s="13">
+        <v>5657</v>
+      </c>
+      <c r="E21" s="19">
+        <v>11605</v>
+      </c>
+      <c r="F21" s="13">
+        <v>12271</v>
+      </c>
+      <c r="G21" s="21">
+        <v>32149</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC6D72-5385-43D2-91CC-FF738E650CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB4F7D1-C545-4043-9928-24E67E6BF038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="25">
   <si>
     <t>NumComments</t>
   </si>
@@ -60,25 +60,66 @@
     <t>science</t>
   </si>
   <si>
-    <t>DebateVaccines</t>
-  </si>
-  <si>
-    <t>MultiDiGraph</t>
-  </si>
-  <si>
-    <t>Graph</t>
+    <t>MensRights</t>
+  </si>
+  <si>
+    <t>WitchesVsPatriarchy</t>
+  </si>
+  <si>
+    <t>2-subreddits</t>
+  </si>
+  <si>
+    <t>Coron. &amp; consp.</t>
+  </si>
+  <si>
+    <t>science &amp; consp.</t>
+  </si>
+  <si>
+    <t>WvP &amp; MR</t>
+  </si>
+  <si>
+    <t>wrldns &amp; consp.</t>
+  </si>
+  <si>
+    <t>worldnews</t>
+  </si>
+  <si>
+    <t>Average Degree</t>
+  </si>
+  <si>
+    <t>Modified</t>
+  </si>
+  <si>
+    <t>modified Graph</t>
+  </si>
+  <si>
+    <t>hate comments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultiDigraph </t>
+  </si>
+  <si>
+    <t>MultiDigraph - connected</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,6 +147,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -115,7 +171,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -209,43 +265,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,442 +740,1444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="43"/>
+      <c r="D1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="43"/>
+      <c r="F1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="G1" s="52"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="47"/>
+      <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="J2" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="51"/>
+      <c r="M2" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="45"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>143116</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="17">
         <v>222</v>
       </c>
       <c r="D3">
         <v>3395</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="17">
         <v>117</v>
       </c>
       <c r="F3">
         <v>146511</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="17">
         <v>339</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="J3" s="49"/>
+      <c r="K3" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>118139</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="17">
         <v>216</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>14939</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="17">
         <v>58</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>132278</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="17">
         <v>273</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="J4" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4">
+        <v>128088</v>
+      </c>
+      <c r="L4">
+        <v>227621</v>
+      </c>
+      <c r="M4">
+        <v>9943</v>
+      </c>
+      <c r="N4">
+        <v>13475</v>
+      </c>
+      <c r="O4">
+        <v>134345</v>
+      </c>
+      <c r="P4" s="1">
+        <v>240434</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>68068</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="17">
         <v>139</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>1897</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="17">
         <v>15</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>69965</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="17">
         <v>154</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="J5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>95150</v>
+      </c>
+      <c r="L5">
+        <v>152372</v>
+      </c>
+      <c r="O5">
+        <v>130699</v>
+      </c>
+      <c r="P5" s="1">
+        <v>203451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>94281</v>
+      </c>
+      <c r="C6" s="17">
+        <v>240</v>
+      </c>
+      <c r="D6">
+        <v>155</v>
+      </c>
+      <c r="E6" s="17">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>94436</v>
+      </c>
+      <c r="G6" s="17">
+        <v>244</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6">
+        <v>105277</v>
+      </c>
+      <c r="L6">
+        <v>174561</v>
+      </c>
+      <c r="M6">
+        <v>8078</v>
+      </c>
+      <c r="N6">
+        <v>11042</v>
+      </c>
+      <c r="O6">
+        <v>110347</v>
+      </c>
+      <c r="P6" s="1">
+        <v>184939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>41082</v>
-      </c>
-      <c r="C6" s="3">
-        <v>221</v>
-      </c>
-      <c r="D6" s="3">
-        <v>24904</v>
-      </c>
-      <c r="E6" s="3">
-        <v>576</v>
-      </c>
-      <c r="F6" s="3">
-        <v>65656</v>
-      </c>
-      <c r="G6" s="3">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="B7" s="9">
+        <v>25051</v>
+      </c>
+      <c r="C7" s="16">
+        <v>222</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2024</v>
+      </c>
+      <c r="E7" s="16">
+        <v>23</v>
+      </c>
+      <c r="F7" s="9">
+        <v>27075</v>
+      </c>
+      <c r="G7" s="16">
+        <v>245</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2">
+        <v>25957</v>
+      </c>
+      <c r="L7" s="2">
+        <v>41575</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1874</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2221</v>
+      </c>
+      <c r="O7" s="2">
+        <v>26907</v>
+      </c>
+      <c r="P7" s="3">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B8" s="20">
+        <v>31543</v>
+      </c>
+      <c r="C8" s="28">
+        <v>241</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1841</v>
+      </c>
+      <c r="E8" s="28">
+        <v>49</v>
+      </c>
+      <c r="F8" s="20">
+        <v>32613</v>
+      </c>
+      <c r="G8" s="28">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J9" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15" t="s">
+      <c r="L9" s="51"/>
+      <c r="M9" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15" t="s">
+      <c r="N9" s="44"/>
+      <c r="O9" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="P9" s="45"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="O10" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11">
+        <v>128088</v>
+      </c>
+      <c r="L11" s="5">
+        <v>195536</v>
+      </c>
+      <c r="M11">
+        <v>9943</v>
+      </c>
+      <c r="N11" s="5">
+        <v>11389</v>
+      </c>
+      <c r="O11">
+        <v>134345</v>
+      </c>
+      <c r="P11" s="7">
+        <v>206354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B12" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="43"/>
+      <c r="F12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="J12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>95150</v>
+      </c>
+      <c r="L12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12">
+        <v>130699</v>
+      </c>
+      <c r="P12" s="7"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="41"/>
+      <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G13" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="J13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13">
+        <v>105277</v>
+      </c>
+      <c r="L13" s="5">
+        <v>148903</v>
+      </c>
+      <c r="M13">
+        <v>8078</v>
+      </c>
+      <c r="N13" s="5">
+        <v>9229</v>
+      </c>
+      <c r="O13">
+        <v>110347</v>
+      </c>
+      <c r="P13" s="7">
+        <v>157570</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8">
-        <v>77143</v>
-      </c>
-      <c r="C11" s="8">
-        <v>248793</v>
-      </c>
-      <c r="D11" s="9">
-        <v>1924</v>
-      </c>
-      <c r="E11" s="9">
-        <v>4955</v>
-      </c>
-      <c r="F11" s="9">
-        <v>78437</v>
-      </c>
-      <c r="G11" s="10">
-        <v>253870</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B14">
+        <v>81267</v>
+      </c>
+      <c r="C14">
+        <v>149557</v>
+      </c>
+      <c r="D14">
+        <v>2031</v>
+      </c>
+      <c r="E14">
+        <v>3256</v>
+      </c>
+      <c r="F14">
+        <v>82586</v>
+      </c>
+      <c r="G14" s="1">
+        <v>152803</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2">
+        <v>25957</v>
+      </c>
+      <c r="L14" s="6">
+        <v>36189</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1874</v>
+      </c>
+      <c r="N14" s="6">
+        <v>1967</v>
+      </c>
+      <c r="O14" s="2">
+        <v>26907</v>
+      </c>
+      <c r="P14" s="8">
+        <v>37686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8">
-        <v>47060</v>
-      </c>
-      <c r="C12" s="8">
-        <v>185424</v>
-      </c>
-      <c r="D12" s="8">
-        <v>7893</v>
-      </c>
-      <c r="E12" s="8">
-        <v>21537</v>
-      </c>
-      <c r="F12" s="8">
-        <v>52061</v>
-      </c>
-      <c r="G12" s="11">
-        <v>205527</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B15">
+        <v>48592</v>
+      </c>
+      <c r="C15">
+        <v>121050</v>
+      </c>
+      <c r="D15">
+        <v>8029</v>
+      </c>
+      <c r="E15">
+        <v>21938</v>
+      </c>
+      <c r="F15">
+        <v>53675</v>
+      </c>
+      <c r="G15" s="1">
+        <v>211338</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
-        <v>49265</v>
-      </c>
-      <c r="C13" s="8">
-        <v>119017</v>
-      </c>
-      <c r="D13" s="9">
-        <v>685</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1553</v>
-      </c>
-      <c r="F13" s="8">
-        <v>50248</v>
-      </c>
-      <c r="G13" s="11">
-        <v>121664</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B16">
+        <v>77872</v>
+      </c>
+      <c r="C16">
+        <v>108919</v>
+      </c>
+      <c r="D16">
+        <v>1034</v>
+      </c>
+      <c r="E16">
+        <v>884</v>
+      </c>
+      <c r="F16">
+        <v>78757</v>
+      </c>
+      <c r="G16" s="1">
+        <v>110604</v>
+      </c>
+      <c r="R16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2">
+        <v>57995</v>
+      </c>
+      <c r="C17" s="2">
+        <v>93995</v>
+      </c>
+      <c r="D17" s="2">
+        <v>106</v>
+      </c>
+      <c r="E17" s="2">
+        <v>151</v>
+      </c>
+      <c r="F17" s="2">
+        <v>58061</v>
+      </c>
+      <c r="G17" s="3">
+        <v>94145</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="13">
-        <v>8090</v>
-      </c>
-      <c r="C14" s="13">
-        <v>42297</v>
-      </c>
-      <c r="D14" s="13">
-        <v>5657</v>
-      </c>
-      <c r="E14" s="13">
-        <v>23109</v>
-      </c>
-      <c r="F14" s="13">
-        <v>12271</v>
-      </c>
-      <c r="G14" s="14">
-        <v>64094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
+      <c r="B18" s="9">
+        <v>10359</v>
+      </c>
+      <c r="C18" s="9">
+        <v>24709</v>
+      </c>
+      <c r="D18" s="9">
+        <v>827</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1999</v>
+      </c>
+      <c r="F18" s="9">
+        <v>10974</v>
+      </c>
+      <c r="G18" s="11">
+        <v>26707</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>3.25</v>
+      </c>
+      <c r="L18">
+        <v>2.58</v>
+      </c>
+      <c r="M18" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="O18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>2.85</v>
+      </c>
+      <c r="Q18">
+        <v>2.31</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2">
+        <v>15628</v>
+      </c>
+      <c r="C19" s="2">
+        <v>31275</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1186</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F19" s="2">
+        <v>15957</v>
+      </c>
+      <c r="G19" s="3">
+        <v>32307</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>3.93</v>
+      </c>
+      <c r="L19">
+        <v>2.74</v>
+      </c>
+      <c r="M19" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="O19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>3.27</v>
+      </c>
+      <c r="Q19">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K20">
+        <v>2.48</v>
+      </c>
+      <c r="L20">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="O20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P20">
+        <v>2.21</v>
+      </c>
+      <c r="Q20">
+        <v>2.02</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2.72</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M21" s="3">
+        <v>2.72</v>
+      </c>
+      <c r="O21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1.96</v>
+      </c>
+      <c r="R21" s="3">
+        <v>2.39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="9">
+        <v>3.23</v>
+      </c>
+      <c r="L22" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="M22" s="11">
+        <v>3.23</v>
+      </c>
+      <c r="O22" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P22" s="9">
+        <v>2.7</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>2.12</v>
+      </c>
+      <c r="R22" s="11">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M23" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P23" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="R23" s="3">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
+      <c r="L25" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
+      <c r="M25" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J26" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>16</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J27" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>46</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27" s="54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B29" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="J29" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="2">
+        <v>49</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="41"/>
+      <c r="B30" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F30" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G30" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="J30" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="9">
+        <v>4</v>
+      </c>
+      <c r="L30" s="9">
+        <v>0</v>
+      </c>
+      <c r="M30" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="8">
-        <v>77143</v>
-      </c>
-      <c r="C18" s="18">
-        <v>124458</v>
-      </c>
-      <c r="D18" s="9">
-        <v>1924</v>
-      </c>
-      <c r="E18" s="18">
-        <v>2490</v>
-      </c>
-      <c r="F18" s="9">
-        <v>78437</v>
-      </c>
-      <c r="G18" s="20">
-        <v>127008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B31">
+        <v>81267</v>
+      </c>
+      <c r="C31">
+        <v>149557</v>
+      </c>
+      <c r="D31" s="10">
+        <v>1923</v>
+      </c>
+      <c r="E31" s="10">
+        <v>3127</v>
+      </c>
+      <c r="F31" s="10">
+        <v>82554</v>
+      </c>
+      <c r="G31" s="53">
+        <v>152780</v>
+      </c>
+      <c r="J31" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="8">
-        <v>47060</v>
-      </c>
-      <c r="C19" s="18">
-        <v>92842</v>
-      </c>
-      <c r="D19" s="8">
-        <v>7893</v>
-      </c>
-      <c r="E19" s="18">
-        <v>10786</v>
-      </c>
-      <c r="F19" s="8">
-        <v>52061</v>
-      </c>
-      <c r="G19" s="20">
-        <v>102910</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B32">
+        <v>48592</v>
+      </c>
+      <c r="C32">
+        <v>121050</v>
+      </c>
+      <c r="D32">
+        <v>8029</v>
+      </c>
+      <c r="E32">
+        <v>21938</v>
+      </c>
+      <c r="F32">
+        <v>53675</v>
+      </c>
+      <c r="G32" s="1">
+        <v>211338</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="8">
-        <v>49265</v>
-      </c>
-      <c r="C20" s="18">
-        <v>59531</v>
-      </c>
-      <c r="D20" s="9">
-        <v>685</v>
-      </c>
-      <c r="E20" s="18">
-        <v>778</v>
-      </c>
-      <c r="F20" s="8">
-        <v>50248</v>
-      </c>
-      <c r="G20" s="20">
-        <v>60858</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="B33">
+        <v>77872</v>
+      </c>
+      <c r="C33">
+        <v>108919</v>
+      </c>
+      <c r="D33" s="10">
+        <v>604</v>
+      </c>
+      <c r="E33" s="10">
+        <v>1341</v>
+      </c>
+      <c r="F33">
+        <v>78757</v>
+      </c>
+      <c r="G33" s="1">
+        <v>110604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="2">
+        <v>57995</v>
+      </c>
+      <c r="C34" s="2">
+        <v>93995</v>
+      </c>
+      <c r="D34" s="55">
+        <v>53</v>
+      </c>
+      <c r="E34" s="55">
+        <v>61</v>
+      </c>
+      <c r="F34" s="2">
+        <v>58061</v>
+      </c>
+      <c r="G34" s="3">
+        <v>94145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="13">
-        <v>8090</v>
-      </c>
-      <c r="C21" s="19">
-        <v>21206</v>
-      </c>
-      <c r="D21" s="13">
-        <v>5657</v>
-      </c>
-      <c r="E21" s="19">
-        <v>11605</v>
-      </c>
-      <c r="F21" s="13">
-        <v>12271</v>
-      </c>
-      <c r="G21" s="21">
-        <v>32149</v>
+      <c r="B35" s="9">
+        <v>10359</v>
+      </c>
+      <c r="C35" s="9">
+        <v>24709</v>
+      </c>
+      <c r="D35" s="9">
+        <v>827</v>
+      </c>
+      <c r="E35" s="9">
+        <v>1999</v>
+      </c>
+      <c r="F35" s="9">
+        <v>10974</v>
+      </c>
+      <c r="G35" s="11">
+        <v>26707</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="55">
+        <v>15621</v>
+      </c>
+      <c r="C36" s="55">
+        <v>31267</v>
+      </c>
+      <c r="D36" s="55">
+        <v>1048</v>
+      </c>
+      <c r="E36" s="55">
+        <v>1605</v>
+      </c>
+      <c r="F36" s="55">
+        <v>15957</v>
+      </c>
+      <c r="G36" s="56">
+        <v>32273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="15"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>81267</v>
+      </c>
+      <c r="C40" s="5">
+        <v>132066</v>
+      </c>
+      <c r="D40">
+        <v>1923</v>
+      </c>
+      <c r="E40" s="5">
+        <v>2488</v>
+      </c>
+      <c r="F40">
+        <v>82554</v>
+      </c>
+      <c r="G40" s="7">
+        <v>134614</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>48592</v>
+      </c>
+      <c r="C41" s="5">
+        <v>95555</v>
+      </c>
+      <c r="D41">
+        <v>8029</v>
+      </c>
+      <c r="E41" s="5">
+        <v>10987</v>
+      </c>
+      <c r="F41">
+        <v>53675</v>
+      </c>
+      <c r="G41" s="7">
+        <v>105820</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>77872</v>
+      </c>
+      <c r="C42" s="5">
+        <v>96411</v>
+      </c>
+      <c r="D42">
+        <v>604</v>
+      </c>
+      <c r="E42" s="5">
+        <v>672</v>
+      </c>
+      <c r="F42">
+        <v>78757</v>
+      </c>
+      <c r="G42" s="7">
+        <v>97632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="2">
+        <v>57995</v>
+      </c>
+      <c r="C43" s="6">
+        <v>43258</v>
+      </c>
+      <c r="D43" s="2">
+        <v>53</v>
+      </c>
+      <c r="E43" s="6">
+        <v>55</v>
+      </c>
+      <c r="F43" s="2">
+        <v>58061</v>
+      </c>
+      <c r="G43" s="8">
+        <v>79120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="9">
+        <v>10359</v>
+      </c>
+      <c r="C44" s="12">
+        <v>16727</v>
+      </c>
+      <c r="D44" s="9">
+        <v>827</v>
+      </c>
+      <c r="E44" s="12">
+        <v>1035</v>
+      </c>
+      <c r="F44" s="9">
+        <v>10974</v>
+      </c>
+      <c r="G44" s="13">
+        <v>17761</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2">
+        <v>15621</v>
+      </c>
+      <c r="C45" s="6">
+        <v>24848</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1048</v>
+      </c>
+      <c r="E45" s="6">
+        <v>1186</v>
+      </c>
+      <c r="F45" s="2">
+        <v>15957</v>
+      </c>
+      <c r="G45" s="8">
+        <v>25497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="15"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>81267</v>
+      </c>
+      <c r="C50" s="5">
+        <v>115981</v>
+      </c>
+      <c r="D50">
+        <v>1923</v>
+      </c>
+      <c r="E50" s="5">
+        <v>2212</v>
+      </c>
+      <c r="F50">
+        <v>82554</v>
+      </c>
+      <c r="G50" s="7">
+        <v>118235</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>48592</v>
+      </c>
+      <c r="C51" s="5">
+        <v>79555</v>
+      </c>
+      <c r="D51">
+        <v>8029</v>
+      </c>
+      <c r="E51" s="5">
+        <v>9177</v>
+      </c>
+      <c r="F51">
+        <v>53675</v>
+      </c>
+      <c r="G51" s="7">
+        <v>88119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B52">
+        <v>77872</v>
+      </c>
+      <c r="C52" s="5">
+        <v>85985</v>
+      </c>
+      <c r="D52">
+        <v>604</v>
+      </c>
+      <c r="E52" s="5">
+        <v>609</v>
+      </c>
+      <c r="F52">
+        <v>78757</v>
+      </c>
+      <c r="G52" s="7">
+        <v>87030</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="2">
+        <v>57995</v>
+      </c>
+      <c r="C53" s="6">
+        <v>69348</v>
+      </c>
+      <c r="D53" s="2">
+        <v>53</v>
+      </c>
+      <c r="E53" s="6">
+        <v>52</v>
+      </c>
+      <c r="F53" s="2">
+        <v>58061</v>
+      </c>
+      <c r="G53" s="8">
+        <v>69451</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="9">
+        <v>10359</v>
+      </c>
+      <c r="C54" s="12">
+        <v>14033</v>
+      </c>
+      <c r="D54" s="9">
+        <v>827</v>
+      </c>
+      <c r="E54" s="12">
+        <v>878</v>
+      </c>
+      <c r="F54" s="9">
+        <v>10974</v>
+      </c>
+      <c r="G54" s="13">
+        <v>14911</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="2">
+        <v>15621</v>
+      </c>
+      <c r="C55" s="6">
+        <v>22156</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1048</v>
+      </c>
+      <c r="E55" s="6">
+        <v>1089</v>
+      </c>
+      <c r="F55" s="2">
+        <v>15957</v>
+      </c>
+      <c r="G55" s="8">
+        <v>22775</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
+  <mergeCells count="18">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AB4F7D1-C545-4043-9928-24E67E6BF038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D7AC7-B875-480C-89E4-73449314CAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -417,49 +417,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,8 +741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -760,24 +759,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="52"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="47"/>
+      <c r="A2" s="51"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -796,21 +795,21 @@
       <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="K2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="51"/>
-      <c r="M2" s="44" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44" t="s">
+      <c r="N2" s="46"/>
+      <c r="O2" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="45"/>
+      <c r="P2" s="47"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -834,7 +833,7 @@
       <c r="G3" s="17">
         <v>339</v>
       </c>
-      <c r="J3" s="49"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
@@ -1048,21 +1047,21 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J9" s="48" t="s">
+      <c r="J9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="51" t="s">
+      <c r="K9" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="51"/>
-      <c r="M9" s="44" t="s">
+      <c r="L9" s="45"/>
+      <c r="M9" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44" t="s">
+      <c r="N9" s="46"/>
+      <c r="O9" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="45"/>
+      <c r="P9" s="47"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
@@ -1072,7 +1071,7 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="J10" s="49"/>
+      <c r="J10" s="44"/>
       <c r="K10" s="38" t="s">
         <v>5</v>
       </c>
@@ -1119,17 +1118,17 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="43"/>
-      <c r="D12" s="43" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="43"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="14" t="s">
         <v>9</v>
       </c>
@@ -1148,7 +1147,7 @@
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
+      <c r="A13" s="49"/>
       <c r="B13" s="26" t="s">
         <v>5</v>
       </c>
@@ -1565,7 +1564,7 @@
       <c r="L27">
         <v>2</v>
       </c>
-      <c r="M27" s="54">
+      <c r="M27" s="1">
         <v>48</v>
       </c>
     </row>
@@ -1587,17 +1586,17 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="14" t="s">
         <v>9</v>
       </c>
@@ -1616,7 +1615,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
+      <c r="A30" s="49"/>
       <c r="B30" s="26" t="s">
         <v>5</v>
       </c>
@@ -1667,7 +1666,7 @@
       <c r="F31" s="10">
         <v>82554</v>
       </c>
-      <c r="G31" s="53">
+      <c r="G31" s="40">
         <v>152780</v>
       </c>
       <c r="J31" s="23" t="s">
@@ -1739,10 +1738,10 @@
       <c r="C34" s="2">
         <v>93995</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="41">
         <v>53</v>
       </c>
-      <c r="E34" s="55">
+      <c r="E34" s="41">
         <v>61</v>
       </c>
       <c r="F34" s="2">
@@ -1779,22 +1778,22 @@
       <c r="A36" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="55">
+      <c r="B36" s="41">
         <v>15621</v>
       </c>
-      <c r="C36" s="55">
+      <c r="C36" s="41">
         <v>31267</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="41">
         <v>1048</v>
       </c>
-      <c r="E36" s="55">
+      <c r="E36" s="41">
         <v>1605</v>
       </c>
-      <c r="F36" s="55">
+      <c r="F36" s="41">
         <v>15957</v>
       </c>
-      <c r="G36" s="56">
+      <c r="G36" s="42">
         <v>32273</v>
       </c>
     </row>
@@ -2160,8 +2159,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
@@ -2178,6 +2175,8 @@
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D7AC7-B875-480C-89E4-73449314CAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11475B94-E62D-4F4C-8357-D23882394528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="32">
   <si>
     <t>NumComments</t>
   </si>
@@ -78,9 +89,6 @@
     <t>WvP &amp; MR</t>
   </si>
   <si>
-    <t>wrldns &amp; consp.</t>
-  </si>
-  <si>
     <t>worldnews</t>
   </si>
   <si>
@@ -100,13 +108,37 @@
   </si>
   <si>
     <t>MultiDigraph - connected</t>
+  </si>
+  <si>
+    <t>graph</t>
+  </si>
+  <si>
+    <t>lgbt</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>lgbt &amp; Cons.</t>
+  </si>
+  <si>
+    <t>consp. &amp; space</t>
+  </si>
+  <si>
+    <t>no inter</t>
+  </si>
+  <si>
+    <t>modified</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +194,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,7 +405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -420,6 +473,23 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -429,10 +499,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -447,18 +523,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -739,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R55"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:P7"/>
+    <sheetView tabSelected="1" topLeftCell="C55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20:R23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,28 +869,29 @@
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53" t="s">
+      <c r="C1" s="56"/>
+      <c r="D1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="51"/>
+      <c r="G1" s="57"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="62"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -795,23 +910,23 @@
       <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="43" t="s">
+      <c r="J2" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="52" t="s">
+      <c r="K2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="46" t="s">
+      <c r="L2" s="54"/>
+      <c r="M2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46" t="s">
+      <c r="N2" s="51"/>
+      <c r="O2" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="47"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P2" s="51"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
@@ -833,17 +948,17 @@
       <c r="G3" s="17">
         <v>339</v>
       </c>
-      <c r="J3" s="44"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="35" t="s">
         <v>6</v>
       </c>
       <c r="O3" s="34" t="s">
@@ -853,7 +968,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -878,26 +993,26 @@
       <c r="J4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="9">
         <v>128088</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="9">
         <v>227621</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="73">
         <v>9943</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="11">
         <v>13475</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="9">
         <v>134345</v>
       </c>
-      <c r="P4" s="1">
+      <c r="P4" s="11">
         <v>240434</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
@@ -919,25 +1034,31 @@
       <c r="G5" s="17">
         <v>154</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
-        <v>95150</v>
-      </c>
-      <c r="L5">
-        <v>152372</v>
-      </c>
-      <c r="O5">
+      <c r="K5" s="2">
+        <v>124826</v>
+      </c>
+      <c r="L5" s="2">
+        <v>191965</v>
+      </c>
+      <c r="M5" s="49">
+        <v>8626</v>
+      </c>
+      <c r="N5" s="3">
+        <v>11659</v>
+      </c>
+      <c r="O5" s="2">
         <v>130699</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="3">
         <v>203451</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>94281</v>
@@ -957,29 +1078,29 @@
       <c r="G6" s="17">
         <v>244</v>
       </c>
-      <c r="J6" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6">
-        <v>105277</v>
-      </c>
-      <c r="L6">
-        <v>174561</v>
-      </c>
-      <c r="M6">
-        <v>8078</v>
-      </c>
-      <c r="N6">
-        <v>11042</v>
-      </c>
-      <c r="O6">
-        <v>110347</v>
-      </c>
-      <c r="P6" s="1">
-        <v>184939</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="2">
+        <v>25957</v>
+      </c>
+      <c r="L6" s="2">
+        <v>41575</v>
+      </c>
+      <c r="M6" s="49">
+        <v>1874</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2221</v>
+      </c>
+      <c r="O6" s="2">
+        <v>26907</v>
+      </c>
+      <c r="P6" s="3">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
@@ -1001,29 +1122,29 @@
       <c r="G7" s="16">
         <v>245</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="2">
-        <v>25957</v>
-      </c>
-      <c r="L7" s="2">
-        <v>41575</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1874</v>
-      </c>
-      <c r="N7" s="2">
-        <v>2221</v>
-      </c>
-      <c r="O7" s="2">
-        <v>26907</v>
-      </c>
-      <c r="P7" s="3">
-        <v>43258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J7" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="73">
+        <v>19077</v>
+      </c>
+      <c r="L7" s="9">
+        <v>28553</v>
+      </c>
+      <c r="M7" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" s="9">
+        <v>21592</v>
+      </c>
+      <c r="P7" s="11">
+        <v>31976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1045,958 +1166,1165 @@
       <c r="G8" s="28">
         <v>285</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J9" s="43" t="s">
+      <c r="J8" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="49">
+        <v>14807</v>
+      </c>
+      <c r="L8" s="2">
+        <v>19227</v>
+      </c>
+      <c r="M8" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="2">
+        <v>16677</v>
+      </c>
+      <c r="P8" s="3">
+        <v>21753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="63">
+        <v>15731</v>
+      </c>
+      <c r="C9" s="64">
+        <v>246</v>
+      </c>
+      <c r="D9" s="63">
+        <v>5164</v>
+      </c>
+      <c r="E9" s="64">
+        <v>137</v>
+      </c>
+      <c r="F9" s="64">
+        <v>20895</v>
+      </c>
+      <c r="G9" s="64">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="63">
+        <v>19795</v>
+      </c>
+      <c r="C10" s="64">
+        <v>237</v>
+      </c>
+      <c r="D10" s="63">
+        <v>1202</v>
+      </c>
+      <c r="E10" s="64">
+        <v>4</v>
+      </c>
+      <c r="F10" s="64">
+        <v>20180</v>
+      </c>
+      <c r="G10" s="64">
+        <v>238</v>
+      </c>
+      <c r="J10" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="K9" s="45" t="s">
+      <c r="K10" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46" t="s">
+      <c r="L10" s="54"/>
+      <c r="M10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46" t="s">
+      <c r="N10" s="51"/>
+      <c r="O10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="P9" s="47"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="38" t="s">
+      <c r="P10" s="51"/>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="65">
+        <v>13526</v>
+      </c>
+      <c r="C11" s="66">
+        <v>215</v>
+      </c>
+      <c r="D11" s="67">
+        <v>1269</v>
+      </c>
+      <c r="E11" s="66">
+        <v>4</v>
+      </c>
+      <c r="F11" s="66">
+        <v>14795</v>
+      </c>
+      <c r="G11" s="66">
+        <v>219</v>
+      </c>
+      <c r="J11" s="78"/>
+      <c r="K11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="38" t="s">
+      <c r="L11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="38" t="s">
+      <c r="M11" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="38" t="s">
+      <c r="N11" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="38" t="s">
+      <c r="O11" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P11" s="39" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="16" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="68">
+        <v>13042</v>
+      </c>
+      <c r="C12" s="69">
+        <v>236</v>
+      </c>
+      <c r="D12" s="70">
+        <v>2171</v>
+      </c>
+      <c r="E12" s="69">
+        <v>58</v>
+      </c>
+      <c r="F12" s="69">
+        <v>15205</v>
+      </c>
+      <c r="G12" s="69">
+        <v>293</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K11">
+      <c r="K12" s="73">
         <v>128088</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L12" s="12">
         <v>195536</v>
       </c>
-      <c r="M11">
+      <c r="M12" s="73">
         <v>9943</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N12" s="13">
         <v>11389</v>
       </c>
-      <c r="O11">
+      <c r="O12" s="9">
         <v>134345</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P12" s="13">
         <v>206354</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="48" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="2">
+        <v>124826</v>
+      </c>
+      <c r="L13" s="84">
+        <v>165540</v>
+      </c>
+      <c r="M13" s="74">
+        <v>8626</v>
+      </c>
+      <c r="N13" s="7">
+        <v>9786</v>
+      </c>
+      <c r="O13" s="85">
+        <v>130699</v>
+      </c>
+      <c r="P13" s="7">
+        <v>175149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="J14" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="88">
+        <v>25957</v>
+      </c>
+      <c r="L14" s="89">
+        <v>36189</v>
+      </c>
+      <c r="M14" s="88">
+        <v>1874</v>
+      </c>
+      <c r="N14" s="90">
+        <v>1967</v>
+      </c>
+      <c r="O14" s="19">
+        <v>26907</v>
+      </c>
+      <c r="P14" s="90">
+        <v>37686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="73">
+        <v>19077</v>
+      </c>
+      <c r="L15" s="12">
+        <v>25364</v>
+      </c>
+      <c r="M15" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" s="81" t="s">
+        <v>30</v>
+      </c>
+      <c r="O15" s="9">
+        <v>21592</v>
+      </c>
+      <c r="P15" s="13">
+        <v>28343</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="14" t="s">
+      <c r="E16" s="56"/>
+      <c r="F16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="15"/>
-      <c r="J12" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12">
-        <v>95150</v>
-      </c>
-      <c r="L12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12">
-        <v>130699</v>
-      </c>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="26" t="s">
+      <c r="G16" s="15"/>
+      <c r="J16" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="49">
+        <v>14807</v>
+      </c>
+      <c r="L16" s="6">
+        <v>16712</v>
+      </c>
+      <c r="M16" s="82" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="83" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="2">
+        <v>16677</v>
+      </c>
+      <c r="P16" s="8">
+        <v>18879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="60"/>
+      <c r="B17" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G17" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13">
-        <v>105277</v>
-      </c>
-      <c r="L13" s="5">
-        <v>148903</v>
-      </c>
-      <c r="M13">
-        <v>8078</v>
-      </c>
-      <c r="N13" s="5">
-        <v>9229</v>
-      </c>
-      <c r="O13">
-        <v>110347</v>
-      </c>
-      <c r="P13" s="7">
-        <v>157570</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>81267</v>
-      </c>
-      <c r="C14">
-        <v>149557</v>
-      </c>
-      <c r="D14">
-        <v>2031</v>
-      </c>
-      <c r="E14">
-        <v>3256</v>
-      </c>
-      <c r="F14">
-        <v>82586</v>
-      </c>
-      <c r="G14" s="1">
-        <v>152803</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="2">
-        <v>25957</v>
-      </c>
-      <c r="L14" s="6">
-        <v>36189</v>
-      </c>
-      <c r="M14" s="2">
-        <v>1874</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1967</v>
-      </c>
-      <c r="O14" s="2">
-        <v>26907</v>
-      </c>
-      <c r="P14" s="8">
-        <v>37686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>48592</v>
-      </c>
-      <c r="C15">
-        <v>121050</v>
-      </c>
-      <c r="D15">
-        <v>8029</v>
-      </c>
-      <c r="E15">
-        <v>21938</v>
-      </c>
-      <c r="F15">
-        <v>53675</v>
-      </c>
-      <c r="G15" s="1">
-        <v>211338</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>77872</v>
-      </c>
-      <c r="C16">
-        <v>108919</v>
-      </c>
-      <c r="D16">
-        <v>1034</v>
-      </c>
-      <c r="E16">
-        <v>884</v>
-      </c>
-      <c r="F16">
-        <v>78757</v>
-      </c>
-      <c r="G16" s="1">
-        <v>110604</v>
-      </c>
-      <c r="R16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
-        <v>57995</v>
-      </c>
-      <c r="C17" s="2">
-        <v>93995</v>
-      </c>
-      <c r="D17" s="2">
-        <v>106</v>
-      </c>
-      <c r="E17" s="2">
-        <v>151</v>
-      </c>
-      <c r="F17" s="2">
-        <v>58061</v>
-      </c>
-      <c r="G17" s="3">
-        <v>94145</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="L17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q17" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="R17" s="15" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>81267</v>
+      </c>
+      <c r="C18">
+        <v>149557</v>
+      </c>
+      <c r="D18">
+        <v>2031</v>
+      </c>
+      <c r="E18">
+        <v>3256</v>
+      </c>
+      <c r="F18">
+        <v>82586</v>
+      </c>
+      <c r="G18" s="1">
+        <v>152803</v>
+      </c>
+      <c r="R18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>48592</v>
+      </c>
+      <c r="C19">
+        <v>121050</v>
+      </c>
+      <c r="D19">
+        <v>8029</v>
+      </c>
+      <c r="E19">
+        <v>21938</v>
+      </c>
+      <c r="F19">
+        <v>53675</v>
+      </c>
+      <c r="G19" s="1">
+        <v>211338</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>77872</v>
+      </c>
+      <c r="C20">
+        <v>108919</v>
+      </c>
+      <c r="D20">
+        <v>1034</v>
+      </c>
+      <c r="E20">
+        <v>884</v>
+      </c>
+      <c r="F20">
+        <v>78757</v>
+      </c>
+      <c r="G20" s="1">
+        <v>110604</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>57995</v>
+      </c>
+      <c r="C21" s="2">
+        <v>93995</v>
+      </c>
+      <c r="D21" s="2">
+        <v>106</v>
+      </c>
+      <c r="E21" s="2">
+        <v>151</v>
+      </c>
+      <c r="F21" s="2">
+        <v>58061</v>
+      </c>
+      <c r="G21" s="3">
+        <v>94145</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>3.25</v>
+      </c>
+      <c r="L21">
+        <v>2.58</v>
+      </c>
+      <c r="M21" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="O21" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>2.85</v>
+      </c>
+      <c r="Q21">
+        <v>2.31</v>
+      </c>
+      <c r="R21" s="1">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B22" s="9">
         <v>10359</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C22" s="9">
         <v>24709</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D22" s="9">
         <v>827</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E22" s="9">
         <v>1999</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F22" s="9">
         <v>10974</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G22" s="11">
         <v>26707</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>3.93</v>
+      </c>
+      <c r="L22">
+        <v>2.74</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.94</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>3.27</v>
+      </c>
+      <c r="Q22">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15628</v>
+      </c>
+      <c r="C23" s="2">
+        <v>31275</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1186</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1800</v>
+      </c>
+      <c r="F23" s="2">
+        <v>15957</v>
+      </c>
+      <c r="G23" s="3">
+        <v>32307</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K23">
+        <v>2.48</v>
+      </c>
+      <c r="L23">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="O23" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="P23">
+        <v>2.21</v>
+      </c>
+      <c r="Q23">
+        <v>2.02</v>
+      </c>
+      <c r="R23" s="1">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="9">
+        <v>8913</v>
+      </c>
+      <c r="C24" s="9">
+        <v>15476</v>
+      </c>
+      <c r="D24" s="9">
+        <v>2659</v>
+      </c>
+      <c r="E24" s="9">
+        <v>5017</v>
+      </c>
+      <c r="F24" s="9">
+        <v>11431</v>
+      </c>
+      <c r="G24" s="11">
+        <v>20493</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="9">
+        <v>3.23</v>
+      </c>
+      <c r="L24" s="9">
+        <v>2.5</v>
+      </c>
+      <c r="M24" s="11">
+        <v>3.23</v>
+      </c>
+      <c r="O24" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="P24" s="73">
+        <v>2.7</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>2.12</v>
+      </c>
+      <c r="R24" s="11">
+        <v>2.71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10201</v>
+      </c>
+      <c r="C25" s="2">
+        <v>19350</v>
+      </c>
+      <c r="D25" s="2">
+        <v>697</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1198</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10337</v>
+      </c>
+      <c r="G25" s="3">
+        <v>19734</v>
+      </c>
+      <c r="J25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="M25" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="49">
+        <v>2.84</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>2.08</v>
+      </c>
+      <c r="R25" s="3">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5676</v>
+      </c>
+      <c r="C26" s="9">
+        <v>13246</v>
+      </c>
+      <c r="D26" s="9">
+        <v>864</v>
+      </c>
+      <c r="E26" s="9">
+        <v>1265</v>
+      </c>
+      <c r="F26" s="9">
+        <v>6423</v>
+      </c>
+      <c r="G26" s="11">
+        <v>14510</v>
+      </c>
+      <c r="J26" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="9">
+        <v>2.82</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2.59</v>
+      </c>
+      <c r="M26" s="11">
+        <v>2.8</v>
+      </c>
+      <c r="O26" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="P26" s="73">
+        <v>2.61</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="R26" s="11">
+        <v>2.552</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2">
+        <v>9371</v>
+      </c>
+      <c r="C27" s="2">
+        <v>12839</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1342</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2119</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10557</v>
+      </c>
+      <c r="G27" s="3">
+        <v>14949</v>
+      </c>
+      <c r="J27" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2.44</v>
+      </c>
+      <c r="M27" s="3">
+        <v>3.14</v>
+      </c>
+      <c r="O27" s="92" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="49">
+        <v>2.7</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="R27" s="3">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J28" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2.94</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2.54</v>
+      </c>
+      <c r="M28" s="11">
+        <v>2.92</v>
+      </c>
+      <c r="O28" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="P28" s="85">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="Q28" s="85">
+        <v>2</v>
+      </c>
+      <c r="R28" s="1">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="J29" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2.37</v>
+      </c>
+      <c r="L29" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M29" s="3">
+        <v>2.4</v>
+      </c>
+      <c r="O29" s="92" t="s">
+        <v>27</v>
+      </c>
+      <c r="P29" s="2">
+        <v>2.14</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="R29" s="3">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L31" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M31" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="57"/>
+      <c r="J32" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="K18">
-        <v>3.25</v>
-      </c>
-      <c r="L18">
-        <v>2.58</v>
-      </c>
-      <c r="M18" s="1">
-        <v>3.26</v>
-      </c>
-      <c r="O18" s="22" t="s">
+      <c r="K32">
+        <v>16</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>46</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="P18">
-        <v>2.85</v>
-      </c>
-      <c r="Q18">
-        <v>2.31</v>
-      </c>
-      <c r="R18" s="1">
-        <v>2.86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="B34">
+        <v>81267</v>
+      </c>
+      <c r="C34">
+        <v>149557</v>
+      </c>
+      <c r="D34" s="10">
+        <v>1923</v>
+      </c>
+      <c r="E34" s="10">
+        <v>3127</v>
+      </c>
+      <c r="F34" s="10">
+        <v>82554</v>
+      </c>
+      <c r="G34" s="40">
+        <v>152780</v>
+      </c>
+      <c r="J34" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>48592</v>
+      </c>
+      <c r="C35">
+        <v>121050</v>
+      </c>
+      <c r="D35">
+        <v>8029</v>
+      </c>
+      <c r="E35">
+        <v>21938</v>
+      </c>
+      <c r="F35">
+        <v>53675</v>
+      </c>
+      <c r="G35" s="1">
+        <v>211338</v>
+      </c>
+      <c r="J35" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="2">
+        <v>49</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>77872</v>
+      </c>
+      <c r="C36">
+        <v>108919</v>
+      </c>
+      <c r="D36" s="10">
+        <v>604</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1341</v>
+      </c>
+      <c r="F36">
+        <v>78757</v>
+      </c>
+      <c r="G36" s="1">
+        <v>110604</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="9">
+        <v>4</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0</v>
+      </c>
+      <c r="M36" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="9">
+        <v>10359</v>
+      </c>
+      <c r="C37" s="9">
+        <v>24709</v>
+      </c>
+      <c r="D37" s="9">
+        <v>827</v>
+      </c>
+      <c r="E37" s="9">
+        <v>1999</v>
+      </c>
+      <c r="F37" s="9">
+        <v>10974</v>
+      </c>
+      <c r="G37" s="11">
+        <v>26707</v>
+      </c>
+      <c r="J37" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="2">
-        <v>15628</v>
-      </c>
-      <c r="C19" s="2">
-        <v>31275</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1186</v>
-      </c>
-      <c r="E19" s="2">
-        <v>1800</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="K37" s="2">
+        <v>0</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="41">
+        <v>15621</v>
+      </c>
+      <c r="C38" s="41">
+        <v>31267</v>
+      </c>
+      <c r="D38" s="41">
+        <v>1048</v>
+      </c>
+      <c r="E38" s="41">
+        <v>1605</v>
+      </c>
+      <c r="F38" s="41">
         <v>15957</v>
       </c>
-      <c r="G19" s="3">
-        <v>32307</v>
-      </c>
-      <c r="J19" s="21" t="s">
+      <c r="G38" s="42">
+        <v>32273</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
         <v>2</v>
       </c>
-      <c r="K19">
-        <v>3.93</v>
-      </c>
-      <c r="L19">
-        <v>2.74</v>
-      </c>
-      <c r="M19" s="1">
-        <v>3.94</v>
-      </c>
-      <c r="O19" s="21" t="s">
+      <c r="M38" s="1">
         <v>2</v>
       </c>
-      <c r="P19">
-        <v>3.27</v>
-      </c>
-      <c r="Q19">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="R19" s="1">
-        <v>3.28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K20">
-        <v>2.48</v>
-      </c>
-      <c r="L20">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="M20" s="1">
-        <v>2.48</v>
-      </c>
-      <c r="O20" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="P20">
-        <v>2.21</v>
-      </c>
-      <c r="Q20">
-        <v>2.02</v>
-      </c>
-      <c r="R20" s="1">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J21" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="2">
-        <v>2.72</v>
-      </c>
-      <c r="L21" s="2">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="M21" s="3">
-        <v>2.72</v>
-      </c>
-      <c r="O21" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1.96</v>
-      </c>
-      <c r="R21" s="3">
-        <v>2.39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="9">
-        <v>3.23</v>
-      </c>
-      <c r="L22" s="9">
-        <v>2.5</v>
-      </c>
-      <c r="M22" s="11">
-        <v>3.23</v>
-      </c>
-      <c r="O22" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="P22" s="9">
-        <v>2.7</v>
-      </c>
-      <c r="Q22" s="9">
-        <v>2.12</v>
-      </c>
-      <c r="R22" s="11">
-        <v>2.71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J23" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="2">
-        <v>3.18</v>
-      </c>
-      <c r="L23" s="2">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3.2</v>
-      </c>
-      <c r="O23" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P23" s="2">
-        <v>2.84</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>2.08</v>
-      </c>
-      <c r="R23" s="3">
-        <v>2.85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J26" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <v>16</v>
-      </c>
-      <c r="L26">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="47">
+        <v>8882</v>
+      </c>
+      <c r="C39" s="47">
+        <v>15445</v>
+      </c>
+      <c r="D39" s="47">
+        <v>2034</v>
+      </c>
+      <c r="E39" s="47">
+        <v>3996</v>
+      </c>
+      <c r="F39" s="47">
+        <v>11265</v>
+      </c>
+      <c r="G39" s="48">
+        <v>20277</v>
+      </c>
+      <c r="J39" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="K39" s="49">
+        <v>3</v>
+      </c>
+      <c r="L39" s="2">
         <v>0</v>
       </c>
-      <c r="M26" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J27" s="21" t="s">
+      <c r="M39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10201</v>
+      </c>
+      <c r="C40" s="2">
+        <v>19350</v>
+      </c>
+      <c r="D40" s="2">
+        <v>697</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1198</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10337</v>
+      </c>
+      <c r="G40" s="3">
+        <v>19734</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="K27">
-        <v>46</v>
-      </c>
-      <c r="L27">
-        <v>2</v>
-      </c>
-      <c r="M27" s="1">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="B41" s="45">
+        <v>5665</v>
+      </c>
+      <c r="C41" s="45">
+        <v>13235</v>
+      </c>
+      <c r="D41" s="45">
+        <v>443</v>
+      </c>
+      <c r="E41" s="45">
+        <v>664</v>
+      </c>
+      <c r="F41" s="45">
+        <v>6416</v>
+      </c>
+      <c r="G41" s="46">
+        <v>14502</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="41">
+        <v>9182</v>
+      </c>
+      <c r="C42" s="41">
+        <v>12655</v>
+      </c>
+      <c r="D42" s="41">
+        <v>1118</v>
+      </c>
+      <c r="E42" s="41">
+        <v>1847</v>
+      </c>
+      <c r="F42" s="41">
+        <v>10304</v>
+      </c>
+      <c r="G42" s="42">
+        <v>14683</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="53"/>
-      <c r="F29" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="15"/>
-      <c r="J29" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" s="2">
-        <v>49</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="9">
-        <v>4</v>
-      </c>
-      <c r="L30" s="9">
-        <v>0</v>
-      </c>
-      <c r="M30" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>81267</v>
-      </c>
-      <c r="C31">
-        <v>149557</v>
-      </c>
-      <c r="D31" s="10">
-        <v>1923</v>
-      </c>
-      <c r="E31" s="10">
-        <v>3127</v>
-      </c>
-      <c r="F31" s="10">
-        <v>82554</v>
-      </c>
-      <c r="G31" s="40">
-        <v>152780</v>
-      </c>
-      <c r="J31" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B32">
-        <v>48592</v>
-      </c>
-      <c r="C32">
-        <v>121050</v>
-      </c>
-      <c r="D32">
-        <v>8029</v>
-      </c>
-      <c r="E32">
-        <v>21938</v>
-      </c>
-      <c r="F32">
-        <v>53675</v>
-      </c>
-      <c r="G32" s="1">
-        <v>211338</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33">
-        <v>77872</v>
-      </c>
-      <c r="C33">
-        <v>108919</v>
-      </c>
-      <c r="D33" s="10">
-        <v>604</v>
-      </c>
-      <c r="E33" s="10">
-        <v>1341</v>
-      </c>
-      <c r="F33">
-        <v>78757</v>
-      </c>
-      <c r="G33" s="1">
-        <v>110604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="2">
-        <v>57995</v>
-      </c>
-      <c r="C34" s="2">
-        <v>93995</v>
-      </c>
-      <c r="D34" s="41">
-        <v>53</v>
-      </c>
-      <c r="E34" s="41">
-        <v>61</v>
-      </c>
-      <c r="F34" s="2">
-        <v>58061</v>
-      </c>
-      <c r="G34" s="3">
-        <v>94145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B35" s="9">
-        <v>10359</v>
-      </c>
-      <c r="C35" s="9">
-        <v>24709</v>
-      </c>
-      <c r="D35" s="9">
-        <v>827</v>
-      </c>
-      <c r="E35" s="9">
-        <v>1999</v>
-      </c>
-      <c r="F35" s="9">
-        <v>10974</v>
-      </c>
-      <c r="G35" s="11">
-        <v>26707</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="41">
-        <v>15621</v>
-      </c>
-      <c r="C36" s="41">
-        <v>31267</v>
-      </c>
-      <c r="D36" s="41">
-        <v>1048</v>
-      </c>
-      <c r="E36" s="41">
-        <v>1605</v>
-      </c>
-      <c r="F36" s="41">
-        <v>15957</v>
-      </c>
-      <c r="G36" s="42">
-        <v>32273</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40">
-        <v>81267</v>
-      </c>
-      <c r="C40" s="5">
-        <v>132066</v>
-      </c>
-      <c r="D40">
-        <v>1923</v>
-      </c>
-      <c r="E40" s="5">
-        <v>2488</v>
-      </c>
-      <c r="F40">
-        <v>82554</v>
-      </c>
-      <c r="G40" s="7">
-        <v>134614</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B41">
-        <v>48592</v>
-      </c>
-      <c r="C41" s="5">
-        <v>95555</v>
-      </c>
-      <c r="D41">
-        <v>8029</v>
-      </c>
-      <c r="E41" s="5">
-        <v>10987</v>
-      </c>
-      <c r="F41">
-        <v>53675</v>
-      </c>
-      <c r="G41" s="7">
-        <v>105820</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42">
-        <v>77872</v>
-      </c>
-      <c r="C42" s="5">
-        <v>96411</v>
-      </c>
-      <c r="D42">
-        <v>604</v>
-      </c>
-      <c r="E42" s="5">
-        <v>672</v>
-      </c>
-      <c r="F42">
-        <v>78757</v>
-      </c>
-      <c r="G42" s="7">
-        <v>97632</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="2">
-        <v>57995</v>
-      </c>
-      <c r="C43" s="6">
-        <v>43258</v>
-      </c>
-      <c r="D43" s="2">
-        <v>53</v>
-      </c>
-      <c r="E43" s="6">
-        <v>55</v>
-      </c>
-      <c r="F43" s="2">
-        <v>58061</v>
-      </c>
-      <c r="G43" s="8">
-        <v>79120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="9">
-        <v>10359</v>
-      </c>
-      <c r="C44" s="12">
-        <v>16727</v>
-      </c>
-      <c r="D44" s="9">
-        <v>827</v>
-      </c>
-      <c r="E44" s="12">
-        <v>1035</v>
-      </c>
-      <c r="F44" s="9">
-        <v>10974</v>
-      </c>
-      <c r="G44" s="13">
-        <v>17761</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B45" s="2">
-        <v>15621</v>
-      </c>
-      <c r="C45" s="6">
-        <v>24848</v>
-      </c>
-      <c r="D45" s="2">
-        <v>1048</v>
-      </c>
-      <c r="E45" s="6">
-        <v>1186</v>
-      </c>
-      <c r="F45" s="2">
-        <v>15957</v>
-      </c>
-      <c r="G45" s="8">
-        <v>25497</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G46" s="10"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14" t="s">
+      <c r="C48" s="56"/>
+      <c r="D48" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14" t="s">
+      <c r="E48" s="56"/>
+      <c r="F48" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="15"/>
+      <c r="G48" s="57"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
@@ -2026,20 +2354,20 @@
       <c r="B50">
         <v>81267</v>
       </c>
-      <c r="C50" s="5">
-        <v>115981</v>
+      <c r="C50" s="13">
+        <v>132066</v>
       </c>
       <c r="D50">
         <v>1923</v>
       </c>
-      <c r="E50" s="5">
-        <v>2212</v>
+      <c r="E50" s="13">
+        <v>2488</v>
       </c>
       <c r="F50">
         <v>82554</v>
       </c>
       <c r="G50" s="7">
-        <v>118235</v>
+        <v>134614</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2049,20 +2377,20 @@
       <c r="B51">
         <v>48592</v>
       </c>
-      <c r="C51" s="5">
-        <v>79555</v>
+      <c r="C51" s="7">
+        <v>95555</v>
       </c>
       <c r="D51">
         <v>8029</v>
       </c>
-      <c r="E51" s="5">
-        <v>9177</v>
+      <c r="E51" s="7">
+        <v>10987</v>
       </c>
       <c r="F51">
         <v>53675</v>
       </c>
       <c r="G51" s="7">
-        <v>88119</v>
+        <v>105820</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2072,111 +2400,460 @@
       <c r="B52">
         <v>77872</v>
       </c>
-      <c r="C52" s="5">
-        <v>85985</v>
+      <c r="C52" s="7">
+        <v>96411</v>
       </c>
       <c r="D52">
         <v>604</v>
       </c>
-      <c r="E52" s="5">
-        <v>609</v>
+      <c r="E52" s="7">
+        <v>672</v>
       </c>
       <c r="F52">
         <v>78757</v>
       </c>
       <c r="G52" s="7">
+        <v>97632</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" s="9">
+        <v>10359</v>
+      </c>
+      <c r="C53" s="13">
+        <v>16727</v>
+      </c>
+      <c r="D53" s="9">
+        <v>827</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1035</v>
+      </c>
+      <c r="F53" s="9">
+        <v>10974</v>
+      </c>
+      <c r="G53" s="13">
+        <v>17761</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="2">
+        <v>15621</v>
+      </c>
+      <c r="C54" s="8">
+        <v>24848</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1048</v>
+      </c>
+      <c r="E54" s="8">
+        <v>1186</v>
+      </c>
+      <c r="F54" s="2">
+        <v>15957</v>
+      </c>
+      <c r="G54" s="8">
+        <v>25497</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="71">
+        <v>8882</v>
+      </c>
+      <c r="C55" s="13">
+        <v>12554</v>
+      </c>
+      <c r="D55" s="71">
+        <v>2034</v>
+      </c>
+      <c r="E55" s="13">
+        <v>2637</v>
+      </c>
+      <c r="F55" s="71">
+        <v>11265</v>
+      </c>
+      <c r="G55" s="13">
+        <v>15751</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" s="72">
+        <v>10201</v>
+      </c>
+      <c r="C56" s="8">
+        <v>15999</v>
+      </c>
+      <c r="D56" s="72">
+        <v>697</v>
+      </c>
+      <c r="E56" s="8">
+        <v>850</v>
+      </c>
+      <c r="F56" s="72">
+        <v>10337</v>
+      </c>
+      <c r="G56" s="8">
+        <v>16225</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="71">
+        <v>5665</v>
+      </c>
+      <c r="C57" s="13">
+        <v>8322</v>
+      </c>
+      <c r="D57" s="71">
+        <v>443</v>
+      </c>
+      <c r="E57" s="13">
+        <v>563</v>
+      </c>
+      <c r="F57" s="71">
+        <v>6416</v>
+      </c>
+      <c r="G57" s="13">
+        <v>9359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B58" s="72">
+        <v>9182</v>
+      </c>
+      <c r="C58" s="8">
+        <v>10905</v>
+      </c>
+      <c r="D58" s="72">
+        <v>1118</v>
+      </c>
+      <c r="E58" s="8">
+        <v>1342</v>
+      </c>
+      <c r="F58" s="72">
+        <v>10304</v>
+      </c>
+      <c r="G58" s="8">
+        <v>12394</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="56"/>
+      <c r="D62" s="56" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="57"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="76"/>
+      <c r="B63" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>81267</v>
+      </c>
+      <c r="C64" s="5">
+        <v>115981</v>
+      </c>
+      <c r="D64" s="73">
+        <v>1923</v>
+      </c>
+      <c r="E64" s="13">
+        <v>2212</v>
+      </c>
+      <c r="F64">
+        <v>82554</v>
+      </c>
+      <c r="G64" s="7">
+        <v>118235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>48592</v>
+      </c>
+      <c r="C65" s="5">
+        <v>79555</v>
+      </c>
+      <c r="D65" s="74">
+        <v>8029</v>
+      </c>
+      <c r="E65" s="7">
+        <v>9177</v>
+      </c>
+      <c r="F65">
+        <v>53675</v>
+      </c>
+      <c r="G65" s="7">
+        <v>88119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66">
+        <v>77872</v>
+      </c>
+      <c r="C66" s="5">
+        <v>85985</v>
+      </c>
+      <c r="D66" s="74">
+        <v>604</v>
+      </c>
+      <c r="E66" s="7">
+        <v>609</v>
+      </c>
+      <c r="F66">
+        <v>78757</v>
+      </c>
+      <c r="G66" s="7">
         <v>87030</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="2">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B67" s="2">
         <v>57995</v>
       </c>
-      <c r="C53" s="6">
+      <c r="C67" s="6">
         <v>69348</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D67" s="49">
         <v>53</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E67" s="8">
         <v>52</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F67" s="2">
         <v>58061</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G67" s="8">
         <v>69451</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="30" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B68" s="9">
         <v>10359</v>
       </c>
-      <c r="C54" s="12">
+      <c r="C68" s="12">
         <v>14033</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D68" s="73">
         <v>827</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E68" s="13">
         <v>878</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F68" s="9">
         <v>10974</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G68" s="13">
         <v>14911</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="31" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B69" s="2">
         <v>15621</v>
       </c>
-      <c r="C55" s="6">
+      <c r="C69" s="6">
         <v>22156</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D69" s="49">
         <v>1048</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E69" s="8">
         <v>1089</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F69" s="2">
         <v>15957</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G69" s="8">
         <v>22775</v>
       </c>
     </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="71">
+        <v>8882</v>
+      </c>
+      <c r="C70" s="13">
+        <v>11595</v>
+      </c>
+      <c r="D70" s="71">
+        <v>2034</v>
+      </c>
+      <c r="E70" s="13">
+        <v>2280</v>
+      </c>
+      <c r="F70" s="71">
+        <v>11265</v>
+      </c>
+      <c r="G70" s="13">
+        <v>14376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B71" s="72">
+        <v>10201</v>
+      </c>
+      <c r="C71" s="8">
+        <v>13769</v>
+      </c>
+      <c r="D71" s="72">
+        <v>697</v>
+      </c>
+      <c r="E71" s="8">
+        <v>702</v>
+      </c>
+      <c r="F71" s="72">
+        <v>10337</v>
+      </c>
+      <c r="G71" s="8">
+        <v>13967</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B72" s="71">
+        <v>5665</v>
+      </c>
+      <c r="C72" s="13">
+        <v>6890</v>
+      </c>
+      <c r="D72" s="71">
+        <v>443</v>
+      </c>
+      <c r="E72" s="13">
+        <v>443</v>
+      </c>
+      <c r="F72" s="71">
+        <v>6416</v>
+      </c>
+      <c r="G72" s="13">
+        <v>7757</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="72">
+        <v>9182</v>
+      </c>
+      <c r="C73" s="8">
+        <v>9822</v>
+      </c>
+      <c r="D73" s="72">
+        <v>1118</v>
+      </c>
+      <c r="E73" s="8">
+        <v>1157</v>
+      </c>
+      <c r="F73" s="72">
+        <v>10304</v>
+      </c>
+      <c r="G73" s="8">
+        <v>11122</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
+  <mergeCells count="25">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11475B94-E62D-4F4C-8357-D23882394528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB22642-953F-4632-9EA4-ADB89F4BC6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="35">
   <si>
     <t>NumComments</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>modified</t>
+  </si>
+  <si>
+    <t>Common Nodes</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Contr.</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -484,72 +493,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,8 +509,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -571,8 +516,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -855,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20:R23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,27 +870,28 @@
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="20" max="20" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56" t="s">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56" t="s">
+      <c r="E1" s="73"/>
+      <c r="F1" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="57"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="62"/>
+      <c r="A2" s="78"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -910,21 +910,21 @@
       <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="52" t="s">
+      <c r="J2" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="55" t="s">
+      <c r="K2" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="54"/>
-      <c r="M2" s="79" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="51"/>
-      <c r="O2" s="50" t="s">
+      <c r="N2" s="68"/>
+      <c r="O2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="51"/>
+      <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -948,7 +948,7 @@
       <c r="G3" s="17">
         <v>339</v>
       </c>
-      <c r="J3" s="53"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
@@ -999,7 +999,7 @@
       <c r="L4" s="9">
         <v>227621</v>
       </c>
-      <c r="M4" s="73">
+      <c r="M4" s="50">
         <v>9943</v>
       </c>
       <c r="N4" s="11">
@@ -1122,19 +1122,19 @@
       <c r="G7" s="16">
         <v>245</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="73">
+      <c r="K7" s="50">
         <v>19077</v>
       </c>
       <c r="L7" s="9">
         <v>28553</v>
       </c>
-      <c r="M7" s="80" t="s">
+      <c r="M7" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="N7" s="81" t="s">
+      <c r="N7" s="55" t="s">
         <v>30</v>
       </c>
       <c r="O7" s="9">
@@ -1166,7 +1166,7 @@
       <c r="G8" s="28">
         <v>285</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="49" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="49">
@@ -1175,10 +1175,10 @@
       <c r="L8" s="2">
         <v>19227</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="M8" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="N8" s="83" t="s">
+      <c r="N8" s="57" t="s">
         <v>30</v>
       </c>
       <c r="O8" s="2">
@@ -1192,22 +1192,22 @@
       <c r="A9" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="63">
+      <c r="B9">
         <v>15731</v>
       </c>
-      <c r="C9" s="64">
+      <c r="C9" s="17">
         <v>246</v>
       </c>
-      <c r="D9" s="63">
+      <c r="D9">
         <v>5164</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E9" s="17">
         <v>137</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="17">
         <v>20895</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G9" s="17">
         <v>383</v>
       </c>
     </row>
@@ -1215,39 +1215,39 @@
       <c r="A10" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="63">
+      <c r="B10">
         <v>19795</v>
       </c>
-      <c r="C10" s="64">
+      <c r="C10" s="17">
         <v>237</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10">
         <v>1202</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E10" s="17">
         <v>4</v>
       </c>
-      <c r="F10" s="64">
+      <c r="F10" s="17">
         <v>20180</v>
       </c>
-      <c r="G10" s="64">
+      <c r="G10" s="17">
         <v>238</v>
       </c>
-      <c r="J10" s="77" t="s">
+      <c r="J10" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="54"/>
-      <c r="M10" s="79" t="s">
+      <c r="L10" s="66"/>
+      <c r="M10" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="50" t="s">
+      <c r="N10" s="68"/>
+      <c r="O10" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="51"/>
+      <c r="P10" s="68"/>
       <c r="Q10" t="s">
         <v>31</v>
       </c>
@@ -1256,32 +1256,32 @@
       <c r="A11" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="65">
+      <c r="B11" s="50">
         <v>13526</v>
       </c>
-      <c r="C11" s="66">
+      <c r="C11" s="16">
         <v>215</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="9">
         <v>1269</v>
       </c>
-      <c r="E11" s="66">
+      <c r="E11" s="16">
         <v>4</v>
       </c>
-      <c r="F11" s="66">
+      <c r="F11" s="16">
         <v>14795</v>
       </c>
-      <c r="G11" s="66">
+      <c r="G11" s="16">
         <v>219</v>
       </c>
-      <c r="J11" s="78"/>
+      <c r="J11" s="71"/>
       <c r="K11" s="38" t="s">
         <v>5</v>
       </c>
       <c r="L11" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="86" t="s">
+      <c r="M11" s="58" t="s">
         <v>5</v>
       </c>
       <c r="N11" s="39" t="s">
@@ -1298,34 +1298,34 @@
       <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="68">
+      <c r="B12" s="49">
         <v>13042</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="18">
         <v>236</v>
       </c>
-      <c r="D12" s="70">
+      <c r="D12" s="2">
         <v>2171</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="18">
         <v>58</v>
       </c>
-      <c r="F12" s="69">
+      <c r="F12" s="18">
         <v>15205</v>
       </c>
-      <c r="G12" s="69">
+      <c r="G12" s="18">
         <v>293</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="73">
+      <c r="K12" s="50">
         <v>128088</v>
       </c>
       <c r="L12" s="12">
         <v>195536</v>
       </c>
-      <c r="M12" s="73">
+      <c r="M12" s="50">
         <v>9943</v>
       </c>
       <c r="N12" s="13">
@@ -1345,16 +1345,16 @@
       <c r="K13" s="2">
         <v>124826</v>
       </c>
-      <c r="L13" s="84">
+      <c r="L13" s="5">
         <v>165540</v>
       </c>
-      <c r="M13" s="74">
+      <c r="M13" s="53">
         <v>8626</v>
       </c>
       <c r="N13" s="7">
         <v>9786</v>
       </c>
-      <c r="O13" s="85">
+      <c r="O13">
         <v>130699</v>
       </c>
       <c r="P13" s="7">
@@ -1362,25 +1362,25 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J14" s="87" t="s">
+      <c r="J14" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="88">
+      <c r="K14" s="60">
         <v>25957</v>
       </c>
-      <c r="L14" s="89">
+      <c r="L14" s="61">
         <v>36189</v>
       </c>
-      <c r="M14" s="88">
+      <c r="M14" s="60">
         <v>1874</v>
       </c>
-      <c r="N14" s="90">
+      <c r="N14" s="62">
         <v>1967</v>
       </c>
       <c r="O14" s="19">
         <v>26907</v>
       </c>
-      <c r="P14" s="90">
+      <c r="P14" s="62">
         <v>37686</v>
       </c>
     </row>
@@ -1388,19 +1388,19 @@
       <c r="A15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="65" t="s">
+      <c r="J15" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="73">
+      <c r="K15" s="50">
         <v>19077</v>
       </c>
       <c r="L15" s="12">
         <v>25364</v>
       </c>
-      <c r="M15" s="80" t="s">
+      <c r="M15" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="N15" s="81" t="s">
+      <c r="N15" s="55" t="s">
         <v>30</v>
       </c>
       <c r="O15" s="9">
@@ -1411,22 +1411,22 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56" t="s">
+      <c r="C16" s="73"/>
+      <c r="D16" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="73"/>
       <c r="F16" s="14" t="s">
         <v>9</v>
       </c>
       <c r="G16" s="15"/>
-      <c r="J16" s="68" t="s">
+      <c r="J16" s="49" t="s">
         <v>29</v>
       </c>
       <c r="K16" s="49">
@@ -1435,10 +1435,10 @@
       <c r="L16" s="6">
         <v>16712</v>
       </c>
-      <c r="M16" s="82" t="s">
+      <c r="M16" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="83" t="s">
+      <c r="N16" s="57" t="s">
         <v>30</v>
       </c>
       <c r="O16" s="2">
@@ -1449,7 +1449,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="76"/>
       <c r="B17" s="26" t="s">
         <v>5</v>
       </c>
@@ -1743,7 +1743,7 @@
       <c r="O24" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="P24" s="73">
+      <c r="P24" s="50">
         <v>2.7</v>
       </c>
       <c r="Q24" s="9">
@@ -1822,7 +1822,7 @@
       <c r="G26" s="11">
         <v>14510</v>
       </c>
-      <c r="J26" s="91" t="s">
+      <c r="J26" s="22" t="s">
         <v>25</v>
       </c>
       <c r="K26" s="9">
@@ -1834,10 +1834,10 @@
       <c r="M26" s="11">
         <v>2.8</v>
       </c>
-      <c r="O26" s="91" t="s">
+      <c r="O26" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="P26" s="73">
+      <c r="P26" s="50">
         <v>2.61</v>
       </c>
       <c r="Q26" s="9">
@@ -1869,7 +1869,7 @@
       <c r="G27" s="3">
         <v>14949</v>
       </c>
-      <c r="J27" s="92" t="s">
+      <c r="J27" s="23" t="s">
         <v>26</v>
       </c>
       <c r="K27" s="2">
@@ -1881,7 +1881,7 @@
       <c r="M27" s="3">
         <v>3.14</v>
       </c>
-      <c r="O27" s="92" t="s">
+      <c r="O27" s="23" t="s">
         <v>26</v>
       </c>
       <c r="P27" s="49">
@@ -1895,7 +1895,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J28" s="91" t="s">
+      <c r="J28" s="22" t="s">
         <v>2</v>
       </c>
       <c r="K28" s="9">
@@ -1907,13 +1907,13 @@
       <c r="M28" s="11">
         <v>2.92</v>
       </c>
-      <c r="O28" s="91" t="s">
+      <c r="O28" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="P28" s="85">
+      <c r="P28">
         <v>2.4300000000000002</v>
       </c>
-      <c r="Q28" s="85">
+      <c r="Q28">
         <v>2</v>
       </c>
       <c r="R28" s="1">
@@ -1921,7 +1921,7 @@
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="J29" s="92" t="s">
+      <c r="J29" s="23" t="s">
         <v>27</v>
       </c>
       <c r="K29" s="2">
@@ -1933,7 +1933,7 @@
       <c r="M29" s="3">
         <v>2.4</v>
       </c>
-      <c r="O29" s="92" t="s">
+      <c r="O29" s="23" t="s">
         <v>27</v>
       </c>
       <c r="P29" s="2">
@@ -1950,46 +1950,34 @@
       <c r="A31" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="J31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="L31" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="M31" s="15" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="58" t="s">
+      <c r="B32" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56" t="s">
+      <c r="C32" s="73"/>
+      <c r="D32" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56" t="s">
+      <c r="E32" s="73"/>
+      <c r="F32" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="J32" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>16</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32" s="1">
-        <v>16</v>
+      <c r="G32" s="74"/>
+      <c r="J32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="L32" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -2012,17 +2000,17 @@
       <c r="G33" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="21" t="s">
-        <v>2</v>
+      <c r="J33" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="L33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33" s="1">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2048,16 +2036,16 @@
         <v>152780</v>
       </c>
       <c r="J34" s="21" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K34">
+        <v>46</v>
+      </c>
+      <c r="L34">
         <v>2</v>
       </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
       <c r="M34" s="1">
-        <v>2</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2082,17 +2070,17 @@
       <c r="G35" s="1">
         <v>211338</v>
       </c>
-      <c r="J35" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="K35" s="2">
-        <v>49</v>
-      </c>
-      <c r="L35" s="2">
+      <c r="J35" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
         <v>0</v>
       </c>
-      <c r="M35" s="3">
-        <v>49</v>
+      <c r="M35" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2303,28 +2291,108 @@
       <c r="G42" s="42">
         <v>14683</v>
       </c>
+      <c r="J42" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="L42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="M42" s="82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K43" s="81">
+        <v>1771</v>
+      </c>
+      <c r="L43" s="81">
+        <v>9</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J44" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="81">
+        <v>1638</v>
+      </c>
+      <c r="L44" s="81">
+        <v>7</v>
+      </c>
+      <c r="M44" s="1">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K45" s="19">
+        <v>23</v>
+      </c>
+      <c r="L45" s="19">
+        <v>1</v>
+      </c>
+      <c r="M45" s="82">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J46" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="19">
+        <v>6</v>
+      </c>
+      <c r="L46" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M46" s="82">
+        <v>10</v>
+      </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
+      <c r="J47" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="2">
+        <v>40</v>
+      </c>
+      <c r="L47" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="M47" s="3">
+        <v>43</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="56"/>
-      <c r="D48" s="56" t="s">
+      <c r="C48" s="73"/>
+      <c r="D48" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56" t="s">
+      <c r="E48" s="73"/>
+      <c r="F48" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="57"/>
+      <c r="G48" s="74"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
@@ -2466,19 +2534,19 @@
       <c r="A55" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="71">
+      <c r="B55" s="51">
         <v>8882</v>
       </c>
       <c r="C55" s="13">
         <v>12554</v>
       </c>
-      <c r="D55" s="71">
+      <c r="D55" s="51">
         <v>2034</v>
       </c>
       <c r="E55" s="13">
         <v>2637</v>
       </c>
-      <c r="F55" s="71">
+      <c r="F55" s="51">
         <v>11265</v>
       </c>
       <c r="G55" s="13">
@@ -2489,19 +2557,19 @@
       <c r="A56" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="72">
+      <c r="B56" s="52">
         <v>10201</v>
       </c>
       <c r="C56" s="8">
         <v>15999</v>
       </c>
-      <c r="D56" s="72">
+      <c r="D56" s="52">
         <v>697</v>
       </c>
       <c r="E56" s="8">
         <v>850</v>
       </c>
-      <c r="F56" s="72">
+      <c r="F56" s="52">
         <v>10337</v>
       </c>
       <c r="G56" s="8">
@@ -2512,19 +2580,19 @@
       <c r="A57" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B57" s="71">
+      <c r="B57" s="51">
         <v>5665</v>
       </c>
       <c r="C57" s="13">
         <v>8322</v>
       </c>
-      <c r="D57" s="71">
+      <c r="D57" s="51">
         <v>443</v>
       </c>
       <c r="E57" s="13">
         <v>563</v>
       </c>
-      <c r="F57" s="71">
+      <c r="F57" s="51">
         <v>6416</v>
       </c>
       <c r="G57" s="13">
@@ -2535,19 +2603,19 @@
       <c r="A58" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B58" s="72">
+      <c r="B58" s="52">
         <v>9182</v>
       </c>
       <c r="C58" s="8">
         <v>10905</v>
       </c>
-      <c r="D58" s="72">
+      <c r="D58" s="52">
         <v>1118</v>
       </c>
       <c r="E58" s="8">
         <v>1342</v>
       </c>
-      <c r="F58" s="72">
+      <c r="F58" s="52">
         <v>10304</v>
       </c>
       <c r="G58" s="8">
@@ -2560,24 +2628,24 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="75" t="s">
+      <c r="A62" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="58" t="s">
+      <c r="B62" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56" t="s">
+      <c r="C62" s="73"/>
+      <c r="D62" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56" t="s">
+      <c r="E62" s="73"/>
+      <c r="F62" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="57"/>
+      <c r="G62" s="74"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="76"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="26" t="s">
         <v>5</v>
       </c>
@@ -2607,7 +2675,7 @@
       <c r="C64" s="5">
         <v>115981</v>
       </c>
-      <c r="D64" s="73">
+      <c r="D64" s="50">
         <v>1923</v>
       </c>
       <c r="E64" s="13">
@@ -2630,7 +2698,7 @@
       <c r="C65" s="5">
         <v>79555</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D65" s="53">
         <v>8029</v>
       </c>
       <c r="E65" s="7">
@@ -2653,7 +2721,7 @@
       <c r="C66" s="5">
         <v>85985</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="53">
         <v>604</v>
       </c>
       <c r="E66" s="7">
@@ -2699,7 +2767,7 @@
       <c r="C68" s="12">
         <v>14033</v>
       </c>
-      <c r="D68" s="73">
+      <c r="D68" s="50">
         <v>827</v>
       </c>
       <c r="E68" s="13">
@@ -2739,19 +2807,19 @@
       <c r="A70" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="71">
+      <c r="B70" s="51">
         <v>8882</v>
       </c>
       <c r="C70" s="13">
         <v>11595</v>
       </c>
-      <c r="D70" s="71">
+      <c r="D70" s="51">
         <v>2034</v>
       </c>
       <c r="E70" s="13">
         <v>2280</v>
       </c>
-      <c r="F70" s="71">
+      <c r="F70" s="51">
         <v>11265</v>
       </c>
       <c r="G70" s="13">
@@ -2762,19 +2830,19 @@
       <c r="A71" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B71" s="72">
+      <c r="B71" s="52">
         <v>10201</v>
       </c>
       <c r="C71" s="8">
         <v>13769</v>
       </c>
-      <c r="D71" s="72">
+      <c r="D71" s="52">
         <v>697</v>
       </c>
       <c r="E71" s="8">
         <v>702</v>
       </c>
-      <c r="F71" s="72">
+      <c r="F71" s="52">
         <v>10337</v>
       </c>
       <c r="G71" s="8">
@@ -2785,19 +2853,19 @@
       <c r="A72" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="71">
+      <c r="B72" s="51">
         <v>5665</v>
       </c>
       <c r="C72" s="13">
         <v>6890</v>
       </c>
-      <c r="D72" s="71">
+      <c r="D72" s="51">
         <v>443</v>
       </c>
       <c r="E72" s="13">
         <v>443</v>
       </c>
-      <c r="F72" s="71">
+      <c r="F72" s="51">
         <v>6416</v>
       </c>
       <c r="G72" s="13">
@@ -2808,19 +2876,19 @@
       <c r="A73" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B73" s="72">
+      <c r="B73" s="52">
         <v>9182</v>
       </c>
       <c r="C73" s="8">
         <v>9822</v>
       </c>
-      <c r="D73" s="72">
+      <c r="D73" s="52">
         <v>1118</v>
       </c>
       <c r="E73" s="8">
         <v>1157</v>
       </c>
-      <c r="F73" s="72">
+      <c r="F73" s="52">
         <v>10304</v>
       </c>
       <c r="G73" s="8">
@@ -2829,6 +2897,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="M10:N10"/>
@@ -2843,17 +2920,8 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB22642-953F-4632-9EA4-ADB89F4BC6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C6461-2ABA-47C0-809F-237B790D4CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,10 +137,10 @@
     <t>Common Nodes</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Contr.</t>
+  </si>
+  <si>
+    <t>conspiracy0</t>
   </si>
 </sst>
 </file>
@@ -516,6 +516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,8 +571,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -854,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R36" sqref="R36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,24 +876,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73" t="s">
+      <c r="E1" s="74"/>
+      <c r="F1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="74"/>
+      <c r="G1" s="75"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
+      <c r="A2" s="79"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -910,21 +912,21 @@
       <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="65" t="s">
+      <c r="K2" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="66"/>
-      <c r="M2" s="67" t="s">
+      <c r="L2" s="67"/>
+      <c r="M2" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="68"/>
-      <c r="O2" s="69" t="s">
+      <c r="N2" s="69"/>
+      <c r="O2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="68"/>
+      <c r="P2" s="69"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
@@ -948,7 +950,7 @@
       <c r="G3" s="17">
         <v>339</v>
       </c>
-      <c r="J3" s="80"/>
+      <c r="J3" s="81"/>
       <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
@@ -1233,21 +1235,21 @@
       <c r="G10" s="17">
         <v>238</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="65" t="s">
+      <c r="K10" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="66"/>
-      <c r="M10" s="67" t="s">
+      <c r="L10" s="67"/>
+      <c r="M10" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="68"/>
-      <c r="O10" s="69" t="s">
+      <c r="N10" s="69"/>
+      <c r="O10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="68"/>
+      <c r="P10" s="69"/>
       <c r="Q10" t="s">
         <v>31</v>
       </c>
@@ -1274,7 +1276,7 @@
       <c r="G11" s="16">
         <v>219</v>
       </c>
-      <c r="J11" s="71"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="38" t="s">
         <v>5</v>
       </c>
@@ -1411,17 +1413,17 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73" t="s">
+      <c r="C16" s="74"/>
+      <c r="D16" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="73"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="14" t="s">
         <v>9</v>
       </c>
@@ -1449,7 +1451,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="77"/>
       <c r="B17" s="26" t="s">
         <v>5</v>
       </c>
@@ -1955,18 +1957,18 @@
       <c r="A32" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="72" t="s">
+      <c r="B32" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73" t="s">
+      <c r="C32" s="74"/>
+      <c r="D32" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73" t="s">
+      <c r="E32" s="74"/>
+      <c r="F32" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="74"/>
+      <c r="G32" s="75"/>
       <c r="J32" s="4" t="s">
         <v>21</v>
       </c>
@@ -2245,6 +2247,18 @@
       <c r="G40" s="3">
         <v>19734</v>
       </c>
+      <c r="J40" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="53">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
@@ -2268,6 +2282,18 @@
       <c r="G41" s="46">
         <v>14502</v>
       </c>
+      <c r="J41" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
@@ -2291,110 +2317,96 @@
       <c r="G42" s="42">
         <v>14683</v>
       </c>
-      <c r="J42" s="50" t="s">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J44" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="K42" s="60" t="s">
+      <c r="K44" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="L42" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="M42" s="82" t="s">
+      <c r="L44" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="M44" s="63" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J43" s="16" t="s">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="81">
+      <c r="K45">
         <v>1771</v>
       </c>
-      <c r="L43" s="81">
+      <c r="L45">
         <v>9</v>
       </c>
-      <c r="M43" s="1">
+      <c r="M45" s="1">
         <v>1884</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J44" s="17" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J46" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K44" s="81">
+      <c r="K46">
         <v>1638</v>
       </c>
-      <c r="L44" s="81">
+      <c r="L46">
         <v>7</v>
       </c>
-      <c r="M44" s="1">
+      <c r="M46" s="1">
         <v>1733</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J45" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="K45" s="19">
-        <v>23</v>
-      </c>
-      <c r="L45" s="19">
-        <v>1</v>
-      </c>
-      <c r="M45" s="82">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J46" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="K46" s="19">
-        <v>6</v>
-      </c>
-      <c r="L46" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M46" s="82">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" s="2">
-        <v>40</v>
-      </c>
-      <c r="L47" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="M47" s="3">
-        <v>43</v>
+      <c r="J47" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="19">
+        <v>23</v>
+      </c>
+      <c r="L47" s="19">
+        <v>1</v>
+      </c>
+      <c r="M47" s="63">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73" t="s">
+      <c r="C48" s="74"/>
+      <c r="D48" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="73"/>
-      <c r="F48" s="73" t="s">
+      <c r="E48" s="74"/>
+      <c r="F48" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="74"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48" s="75"/>
+      <c r="J48" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="19">
+        <v>6</v>
+      </c>
+      <c r="L48" s="82">
+        <v>0</v>
+      </c>
+      <c r="M48" s="63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="26" t="s">
         <v>5</v>
@@ -2414,8 +2426,20 @@
       <c r="G49" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J49" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="2">
+        <v>40</v>
+      </c>
+      <c r="L49" s="20">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>1</v>
       </c>
@@ -2438,7 +2462,7 @@
         <v>134614</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>2</v>
       </c>
@@ -2461,7 +2485,7 @@
         <v>105820</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>10</v>
       </c>
@@ -2484,7 +2508,7 @@
         <v>97632</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>11</v>
       </c>
@@ -2507,7 +2531,7 @@
         <v>17761</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>12</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>25497</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>25</v>
       </c>
@@ -2553,7 +2577,7 @@
         <v>15751</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>26</v>
       </c>
@@ -2576,7 +2600,7 @@
         <v>16225</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>2</v>
       </c>
@@ -2599,7 +2623,7 @@
         <v>9359</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>27</v>
       </c>
@@ -2622,30 +2646,30 @@
         <v>12394</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="63" t="s">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="72" t="s">
+      <c r="B62" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73" t="s">
+      <c r="C62" s="74"/>
+      <c r="D62" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73" t="s">
+      <c r="E62" s="74"/>
+      <c r="F62" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="74"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
+      <c r="G62" s="75"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" s="65"/>
       <c r="B63" s="26" t="s">
         <v>5</v>
       </c>
@@ -2665,7 +2689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>1</v>
       </c>

--- a/statistics/general.xlsx
+++ b/statistics/general.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\ForumPolarization\statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3C6461-2ABA-47C0-809F-237B790D4CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A8DF8B-C3C1-44F1-9573-8FDFBCF22827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="36">
   <si>
     <t>NumComments</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>conspiracy0</t>
+  </si>
+  <si>
+    <t>Edges accros</t>
   </si>
 </sst>
 </file>
@@ -517,6 +520,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -570,9 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,29 +874,31 @@
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="15.42578125" customWidth="1"/>
     <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
+    <col min="20" max="20" width="7" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74" t="s">
+      <c r="C1" s="75"/>
+      <c r="D1" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74" t="s">
+      <c r="E1" s="75"/>
+      <c r="F1" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="75"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
+      <c r="G1" s="76"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="80"/>
       <c r="B2" s="24" t="s">
         <v>0</v>
       </c>
@@ -912,23 +917,35 @@
       <c r="G2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70" t="s">
+      <c r="N2" s="70"/>
+      <c r="O2" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="69"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="70"/>
+      <c r="S2" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
@@ -950,7 +967,7 @@
       <c r="G3" s="17">
         <v>339</v>
       </c>
-      <c r="J3" s="81"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
@@ -969,8 +986,20 @@
       <c r="P3" s="35" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3">
+        <v>1771</v>
+      </c>
+      <c r="U3">
+        <v>9</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
@@ -1013,8 +1042,20 @@
       <c r="P4" s="11">
         <v>240434</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>1638</v>
+      </c>
+      <c r="U4">
+        <v>7</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1098,20 @@
       <c r="P5" s="3">
         <v>203451</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="T5" s="19">
+        <v>23</v>
+      </c>
+      <c r="U5" s="19">
+        <v>1</v>
+      </c>
+      <c r="V5" s="63">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>17</v>
       </c>
@@ -1101,8 +1154,20 @@
       <c r="P6" s="3">
         <v>43258</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6" s="19">
+        <v>6</v>
+      </c>
+      <c r="U6" s="64">
+        <v>0</v>
+      </c>
+      <c r="V6" s="63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>11</v>
       </c>
@@ -1145,8 +1210,20 @@
       <c r="P7" s="11">
         <v>31976</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T7" s="2">
+        <v>40</v>
+      </c>
+      <c r="U7" s="20">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1267,7 @@
         <v>21753</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>25</v>
       </c>
@@ -1213,7 +1290,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
         <v>26</v>
       </c>
@@ -1235,26 +1312,38 @@
       <c r="G10" s="17">
         <v>238</v>
       </c>
-      <c r="J10" s="71" t="s">
+      <c r="J10" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="66" t="s">
+      <c r="K10" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68" t="s">
+      <c r="L10" s="68"/>
+      <c r="M10" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70" t="s">
+      <c r="N10" s="70"/>
+      <c r="O10" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="P10" s="69"/>
+      <c r="P10" s="70"/>
       <c r="Q10" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S10" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1365,7 @@
       <c r="G11" s="16">
         <v>219</v>
       </c>
-      <c r="J11" s="72"/>
+      <c r="J11" s="73"/>
       <c r="K11" s="38" t="s">
         <v>5</v>
       </c>
@@ -1295,8 +1384,20 @@
       <c r="P11" s="39" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S11" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11">
+        <v>15989</v>
+      </c>
+      <c r="U11">
+        <v>454</v>
+      </c>
+      <c r="V11">
+        <v>17712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
         <v>27</v>
       </c>
@@ -1339,8 +1440,20 @@
       <c r="P12" s="13">
         <v>206354</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="T12">
+        <v>16086</v>
+      </c>
+      <c r="U12">
+        <v>36</v>
+      </c>
+      <c r="V12" s="1">
+        <v>17971</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J13" s="17" t="s">
         <v>15</v>
       </c>
@@ -1362,8 +1475,20 @@
       <c r="P13" s="7">
         <v>175149</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S13" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="19">
+        <v>237</v>
+      </c>
+      <c r="U13" s="19">
+        <v>95</v>
+      </c>
+      <c r="V13" s="63">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J14" s="59" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1510,20 @@
       <c r="P14" s="62">
         <v>37686</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14" s="59" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14" s="19">
+        <v>21</v>
+      </c>
+      <c r="U14" s="64">
+        <v>0</v>
+      </c>
+      <c r="V14" s="63">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>22</v>
       </c>
@@ -1411,19 +1548,31 @@
       <c r="P15" s="13">
         <v>28343</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
+      <c r="S15" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15" s="2">
+        <v>372</v>
+      </c>
+      <c r="U15" s="20">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74" t="s">
+      <c r="C16" s="75"/>
+      <c r="D16" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="74"/>
+      <c r="E16" s="75"/>
       <c r="F16" s="14" t="s">
         <v>9</v>
       </c>
@@ -1451,7 +1600,7 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
+      <c r="A17" s="78"/>
       <c r="B17" s="26" t="s">
         <v>5</v>
       </c>
@@ -1957,18 +2106,18 @@
       <c r="A32" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="73" t="s">
+      <c r="B32" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74" t="s">
+      <c r="C32" s="75"/>
+      <c r="D32" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74" t="s">
+      <c r="E32" s="75"/>
+      <c r="F32" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G32" s="75"/>
+      <c r="G32" s="76"/>
       <c r="J32" s="4" t="s">
         <v>21</v>
       </c>
@@ -2318,95 +2467,29 @@
         <v>14683</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J44" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="L44" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="M44" s="63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J45" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="K45">
-        <v>1771</v>
-      </c>
-      <c r="L45">
-        <v>9</v>
-      </c>
-      <c r="M45" s="1">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J46" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="K46">
-        <v>1638</v>
-      </c>
-      <c r="L46">
-        <v>7</v>
-      </c>
-      <c r="M46" s="1">
-        <v>1733</v>
-      </c>
-    </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>24</v>
       </c>
-      <c r="J47" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="K47" s="19">
-        <v>23</v>
-      </c>
-      <c r="L47" s="19">
-        <v>1</v>
-      </c>
-      <c r="M47" s="63">
-        <v>24</v>
-      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="74"/>
-      <c r="D48" s="74" t="s">
+      <c r="C48" s="75"/>
+      <c r="D48" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="74"/>
-      <c r="F48" s="74" t="s">
+      <c r="E48" s="75"/>
+      <c r="F48" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="75"/>
-      <c r="J48" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="K48" s="19">
-        <v>6</v>
-      </c>
-      <c r="L48" s="82">
-        <v>0</v>
-      </c>
-      <c r="M48" s="63">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G48" s="76"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="37"/>
       <c r="B49" s="26" t="s">
         <v>5</v>
@@ -2426,20 +2509,8 @@
       <c r="G49" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J49" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" s="2">
-        <v>40</v>
-      </c>
-      <c r="L49" s="20">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>1</v>
       </c>
@@ -2462,7 +2533,7 @@
         <v>134614</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
         <v>2</v>
       </c>
@@ -2485,7 +2556,7 @@
         <v>105820</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
         <v>10</v>
       </c>
@@ -2508,7 +2579,7 @@
         <v>97632</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>11</v>
       </c>
@@ -2531,7 +2602,7 @@
         <v>17761</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="31" t="s">
         <v>12</v>
       </c>
@@ -2554,7 +2625,7 @@
         <v>25497</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>25</v>
       </c>
@@ -2577,7 +2648,7 @@
         <v>15751</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>26</v>
       </c>
@@ -2600,7 +2671,7 @@
         <v>16225</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>2</v>
       </c>
@@ -2623,7 +2694,7 @@
         <v>9359</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
         <v>27</v>
       </c>
@@ -2646,30 +2717,30 @@
         <v>12394</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C62" s="74"/>
-      <c r="D62" s="74" t="s">
+      <c r="C62" s="75"/>
+      <c r="D62" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="74"/>
-      <c r="F62" s="74" t="s">
+      <c r="E62" s="75"/>
+      <c r="F62" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G62" s="75"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
+      <c r="G62" s="76"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="66"/>
       <c r="B63" s="26" t="s">
         <v>5</v>
       </c>
@@ -2689,7 +2760,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
         <v>1</v>
       </c>
